--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111623672</v>
+        <v>111622229</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>535988.4578048707</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R2" t="n">
-        <v>7209708.122271948</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,9 +782,23 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -796,7 +815,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111622173</v>
+        <v>111623468</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,7 +853,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -844,13 +863,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536211.5596349295</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R3" t="n">
-        <v>7208983.18093912</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -900,21 +919,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -931,7 +935,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111623737</v>
+        <v>111623380</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -969,7 +973,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -979,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535968.9484369244</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R4" t="n">
-        <v>7209745.533198988</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1051,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111623026</v>
+        <v>111624006</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,25 +1067,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1094,13 +1098,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536102.963546137</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R5" t="n">
-        <v>7209275.480738332</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1167,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111621572</v>
+        <v>111622590</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1183,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1210,13 +1214,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536384.5165957341</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R6" t="n">
-        <v>7208973.017290085</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1256,11 +1260,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1272,21 +1271,6 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1303,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111622229</v>
+        <v>111623556</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,35 +1299,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1351,13 +1330,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536040.4055433145</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R7" t="n">
-        <v>7209159.649405509</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1405,23 +1384,9 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1438,10 +1403,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623417</v>
+        <v>111623503</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1450,30 +1415,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1481,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535866.1958485778</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R8" t="n">
-        <v>7209556.480484258</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1535,7 +1505,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1554,7 +1523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111622736</v>
+        <v>111623740</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1597,13 +1566,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535953.8130829642</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R9" t="n">
-        <v>7209209.795134133</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1670,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111622612</v>
+        <v>111621888</v>
       </c>
       <c r="B10" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1682,25 +1651,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1713,10 +1682,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>535976.2494590636</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R10" t="n">
-        <v>7209175.797223139</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1786,7 +1755,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111621565</v>
+        <v>111622152</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1834,13 +1803,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536384.5165957341</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R11" t="n">
-        <v>7208973.017290085</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1921,7 +1890,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111625160</v>
+        <v>111622636</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1969,13 +1938,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536263.4947354996</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R12" t="n">
-        <v>7209449.609840255</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2041,7 +2010,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623740</v>
+        <v>111621975</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2084,13 +2053,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535968.9484369244</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R13" t="n">
-        <v>7209745.533198988</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2130,6 +2099,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2141,6 +2115,21 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2157,10 +2146,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111622590</v>
+        <v>111623417</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2169,25 +2158,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2200,13 +2189,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536007.9265540047</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R14" t="n">
-        <v>7209183.371993401</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2273,10 +2262,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111622734</v>
+        <v>111624625</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2289,31 +2278,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2321,13 +2305,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535953.8130829642</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R15" t="n">
-        <v>7209209.795134133</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2369,12 +2353,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2393,7 +2383,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111623076</v>
+        <v>111623697</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2431,7 +2421,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2441,13 +2431,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536023.4663215687</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R16" t="n">
-        <v>7209299.479105573</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2513,7 +2503,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111621975</v>
+        <v>111622312</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2556,10 +2546,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536396.9230770704</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R17" t="n">
-        <v>7209171.174238501</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2604,11 +2594,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2618,21 +2603,6 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2649,10 +2619,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111624238</v>
+        <v>111621985</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2665,31 +2635,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2697,13 +2662,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536021.4365124467</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R18" t="n">
-        <v>7209467.40269117</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2751,6 +2716,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2769,10 +2735,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111621888</v>
+        <v>111622557</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2781,30 +2747,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2812,10 +2783,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536416.0900422698</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R19" t="n">
-        <v>7209162.523791903</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2866,7 +2837,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2885,7 +2855,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111622152</v>
+        <v>111622583</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2923,7 +2893,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2933,10 +2903,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536330.5895068019</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R20" t="n">
-        <v>7209122.557094801</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2981,6 +2951,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2989,21 +2964,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3020,10 +2980,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111622583</v>
+        <v>111623057</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3032,35 +2992,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3068,13 +3023,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536007.9265540047</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R21" t="n">
-        <v>7209183.371993401</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3116,17 +3071,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3145,10 +3096,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111623380</v>
+        <v>111623126</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3157,35 +3108,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3193,13 +3139,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>535912.0367731415</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R22" t="n">
-        <v>7209513.038373807</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3247,6 +3193,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3265,10 +3212,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111622312</v>
+        <v>111625169</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3277,30 +3224,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3308,13 +3260,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536040.9507766268</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R23" t="n">
-        <v>7209184.617312368</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3362,7 +3314,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3381,10 +3332,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111623155</v>
+        <v>111623887</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3393,35 +3344,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3429,13 +3375,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535977.4727609204</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R24" t="n">
-        <v>7209320.07617898</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3483,6 +3429,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3501,7 +3448,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111624097</v>
+        <v>111623569</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3539,7 +3486,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3549,10 +3496,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535928.2260010642</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R25" t="n">
-        <v>7209575.417457776</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3621,10 +3568,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111621800</v>
+        <v>111622734</v>
       </c>
       <c r="B26" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3633,30 +3580,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3664,10 +3616,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536440.4635266946</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R26" t="n">
-        <v>7209143.783224681</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3718,7 +3670,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3737,10 +3688,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111622993</v>
+        <v>111623026</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3749,35 +3700,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3785,10 +3731,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536109.6063802312</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R27" t="n">
-        <v>7209286.560724956</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3839,6 +3785,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3977,10 +3924,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111623904</v>
+        <v>111623001</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3993,31 +3940,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4025,13 +3967,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>535966.8369070068</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R29" t="n">
-        <v>7209674.867268311</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4079,6 +4021,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4097,10 +4040,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111624344</v>
+        <v>111624796</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4113,31 +4056,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4145,10 +4083,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536034.9019056049</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R30" t="n">
-        <v>7209439.645294238</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4199,6 +4137,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4217,7 +4156,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111623569</v>
+        <v>111624097</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4255,7 +4194,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4265,10 +4204,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535929.7413597835</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R31" t="n">
-        <v>7209590.241238016</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4337,10 +4276,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111621985</v>
+        <v>111624450</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4353,26 +4292,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4380,13 +4324,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536396.9230770704</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R32" t="n">
-        <v>7209171.174238501</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4434,7 +4378,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4453,10 +4396,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111621484</v>
+        <v>111624781</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4469,31 +4412,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4501,10 +4439,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536395.2396464556</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R33" t="n">
-        <v>7208927.45277346</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4549,29 +4487,20 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4588,7 +4517,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111621424</v>
+        <v>111623493</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4626,7 +4555,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4636,13 +4565,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>536427.0683239623</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R34" t="n">
-        <v>7208922.764273487</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4692,21 +4621,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4723,10 +4637,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111623828</v>
+        <v>111623000</v>
       </c>
       <c r="B35" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4735,30 +4649,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4766,13 +4685,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>535969.6370432132</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R35" t="n">
-        <v>7209758.654224422</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4820,7 +4739,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4839,10 +4757,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111624781</v>
+        <v>111624558</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>89790</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4855,21 +4773,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4882,10 +4795,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536163.4453901229</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R36" t="n">
-        <v>7209387.476444452</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4928,11 +4841,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4960,7 +4868,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111623468</v>
+        <v>111625148</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4998,7 +4906,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -5008,10 +4916,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>535866.1958485778</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R37" t="n">
-        <v>7209556.480484258</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -5080,10 +4988,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111625148</v>
+        <v>111625227</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5096,31 +5004,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5128,10 +5031,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536244.5255485425</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R38" t="n">
-        <v>7209442.18746885</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5182,6 +5085,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5200,10 +5104,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111622318</v>
+        <v>111622996</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5212,25 +5116,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5243,13 +5147,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536040.9507766268</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R39" t="n">
-        <v>7209184.617312368</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5451,10 +5355,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111624558</v>
+        <v>111622318</v>
       </c>
       <c r="B41" t="n">
-        <v>89790</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5467,16 +5371,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6040186</v>
+        <v>6425</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5489,13 +5398,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536083.1087774199</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R41" t="n">
-        <v>7209411.039029445</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5562,7 +5471,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111623925</v>
+        <v>111624238</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5600,7 +5509,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -5610,10 +5519,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535975.1632773781</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R42" t="n">
-        <v>7209651.702600373</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5682,10 +5591,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111623057</v>
+        <v>111624010</v>
       </c>
       <c r="B43" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5694,30 +5603,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5725,13 +5639,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536049.8462557254</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R43" t="n">
-        <v>7209289.644754019</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S43" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5779,7 +5693,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5798,7 +5711,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111622636</v>
+        <v>111623925</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5836,7 +5749,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5846,13 +5759,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535993.6234792916</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R44" t="n">
-        <v>7209210.275665025</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5918,10 +5831,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111624564</v>
+        <v>111623904</v>
       </c>
       <c r="B45" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5930,30 +5843,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5961,10 +5879,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536083.1087774199</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R45" t="n">
-        <v>7209411.039029445</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -6015,7 +5933,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6034,10 +5951,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111623126</v>
+        <v>111623155</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6046,30 +5963,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6077,13 +5999,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>536023.4663215687</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R46" t="n">
-        <v>7209299.479105573</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S46" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6131,7 +6053,6 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6150,7 +6071,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111623001</v>
+        <v>111624052</v>
       </c>
       <c r="B47" t="n">
         <v>89423</v>
@@ -6193,13 +6114,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536109.6063802312</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R47" t="n">
-        <v>7209286.560724956</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6266,7 +6187,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111623503</v>
+        <v>111621484</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6304,7 +6225,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6314,10 +6235,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535856.860287422</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R48" t="n">
-        <v>7209593.170475948</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6370,6 +6291,21 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6386,10 +6322,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111624006</v>
+        <v>111623737</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6402,26 +6338,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6429,10 +6370,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>535979.5667387084</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R49" t="n">
-        <v>7209602.686786775</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6483,7 +6424,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6502,7 +6442,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111622996</v>
+        <v>111623828</v>
       </c>
       <c r="B50" t="n">
         <v>90087</v>
@@ -6545,13 +6485,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536109.6063802312</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R50" t="n">
-        <v>7209286.560724956</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S50" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6618,10 +6558,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111621872</v>
+        <v>111622173</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6634,26 +6574,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6661,10 +6606,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536440.3290520471</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R51" t="n">
-        <v>7209154.781605188</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6715,7 +6660,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6729,14 +6673,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Picea abies # Toppknäckt gran</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6754,10 +6693,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111624004</v>
+        <v>111621424</v>
       </c>
       <c r="B52" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6766,30 +6705,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6797,13 +6741,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535979.5667387084</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R52" t="n">
-        <v>7209602.686786775</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6851,9 +6795,23 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6870,10 +6828,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111623887</v>
+        <v>111622612</v>
       </c>
       <c r="B53" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6882,25 +6840,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6913,13 +6871,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535978.2032259003</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R53" t="n">
-        <v>7209715.612372425</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6986,7 +6944,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111622557</v>
+        <v>111623511</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -7024,7 +6982,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -7034,13 +6992,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536009.1715554149</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R54" t="n">
-        <v>7209185.502391796</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7106,7 +7064,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111624010</v>
+        <v>111623840</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7154,10 +7112,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>535979.5667387084</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R55" t="n">
-        <v>7209602.686786775</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7226,10 +7184,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111624450</v>
+        <v>111624004</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7238,35 +7196,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7274,10 +7227,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536057.8671864467</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R56" t="n">
-        <v>7209431.885401525</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7328,6 +7281,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7346,7 +7300,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623697</v>
+        <v>111623076</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7384,7 +7338,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7394,13 +7348,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>535988.4578048707</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R57" t="n">
-        <v>7209708.122271948</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7466,10 +7420,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111624052</v>
+        <v>111624344</v>
       </c>
       <c r="B58" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7482,26 +7436,31 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7509,10 +7468,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>535928.2260010642</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R58" t="n">
-        <v>7209575.417457776</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7563,7 +7522,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7582,10 +7540,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111625227</v>
+        <v>111623592</v>
       </c>
       <c r="B59" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7598,26 +7556,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7625,10 +7588,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>536368.8900330348</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R59" t="n">
-        <v>7209489.813207326</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7679,7 +7642,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7698,7 +7660,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623592</v>
+        <v>111625238</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7746,10 +7708,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535951.6286454553</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R60" t="n">
-        <v>7209601.503558567</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7818,10 +7780,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111623511</v>
+        <v>111621872</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7834,31 +7796,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7866,13 +7823,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535899.6858320399</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R61" t="n">
-        <v>7209589.032964948</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7920,8 +7877,29 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -7938,10 +7916,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111625238</v>
+        <v>111621572</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7950,35 +7928,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7986,10 +7959,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536371.5755853961</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R62" t="n">
-        <v>7209512.6894844</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -8034,14 +8007,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8058,10 +8052,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111623493</v>
+        <v>111621800</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8070,35 +8064,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8106,13 +8095,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535838.0792552171</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R63" t="n">
-        <v>7209570.101763099</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8160,6 +8149,7 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8178,10 +8168,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623840</v>
+        <v>111622736</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8190,35 +8180,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8226,13 +8211,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535969.6370432132</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R64" t="n">
-        <v>7209758.654224422</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8280,6 +8265,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8298,10 +8284,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111624625</v>
+        <v>111621565</v>
       </c>
       <c r="B65" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8314,26 +8300,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8341,10 +8332,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>536146.6289329219</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R65" t="n">
-        <v>7209377.11937314</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8389,20 +8380,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -8419,10 +8419,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111624796</v>
+        <v>111623672</v>
       </c>
       <c r="B66" t="n">
-        <v>89686</v>
+        <v>90087</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8431,25 +8431,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536163.4453901229</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R66" t="n">
-        <v>7209387.476444452</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111623556</v>
+        <v>111624564</v>
       </c>
       <c r="B67" t="n">
         <v>90087</v>
@@ -8578,10 +8578,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535929.7413597835</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R67" t="n">
-        <v>7209590.241238016</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621709</v>
+        <v>111621741</v>
       </c>
       <c r="B68" t="n">
         <v>89423</v>
@@ -8694,10 +8694,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536588.4287280297</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R68" t="n">
-        <v>7209063.940678015</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621741</v>
+        <v>111621404</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8803,21 +8803,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536601.4752199765</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R69" t="n">
-        <v>7209070.870306575</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8887,26 +8887,6 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8923,10 +8903,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621404</v>
+        <v>111621709</v>
       </c>
       <c r="B70" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8939,21 +8919,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8966,10 +8946,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536490.2040342408</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R70" t="n">
-        <v>7208921.420983357</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9023,6 +9003,26 @@
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
@@ -9039,10 +9039,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621391</v>
+        <v>111621754</v>
       </c>
       <c r="B71" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9051,35 +9051,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9087,10 +9082,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536493.9251405013</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R71" t="n">
-        <v>7208859.691794363</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9141,6 +9136,7 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9174,10 +9170,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621754</v>
+        <v>111621391</v>
       </c>
       <c r="B72" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9186,30 +9182,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9217,10 +9218,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536493.437552894</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R72" t="n">
-        <v>7209072.507141155</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9271,7 +9272,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111622229</v>
+        <v>111623026</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536040.4055433145</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R2" t="n">
-        <v>7209159.649405509</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -782,23 +777,9 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -815,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623468</v>
+        <v>111621985</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,31 +812,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -863,13 +839,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535866.1958485778</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R3" t="n">
-        <v>7209556.480484258</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -917,6 +893,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -935,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111623380</v>
+        <v>111624097</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -983,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535912.0367731415</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R4" t="n">
-        <v>7209513.038373807</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1055,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111624006</v>
+        <v>111621484</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,26 +1048,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1098,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>535979.5667387084</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R5" t="n">
-        <v>7209602.686786775</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1152,9 +1134,23 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1171,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111622590</v>
+        <v>111623493</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,26 +1183,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1214,13 +1215,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536007.9265540047</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R6" t="n">
-        <v>7209183.371993401</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1268,7 +1269,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111623556</v>
+        <v>111625238</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,30 +1299,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1330,10 +1335,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>535929.7413597835</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R7" t="n">
-        <v>7209590.241238016</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1384,7 +1389,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1403,10 +1407,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623503</v>
+        <v>111623887</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,35 +1419,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1451,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535856.860287422</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R8" t="n">
-        <v>7209593.170475948</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1505,6 +1504,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111623740</v>
+        <v>111624006</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,25 +1535,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535968.9484369244</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R9" t="n">
-        <v>7209745.533198988</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111621888</v>
+        <v>111623000</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,30 +1651,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1682,13 +1687,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536416.0900422698</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R10" t="n">
-        <v>7209162.523791903</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1736,7 +1741,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1755,10 +1759,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111622152</v>
+        <v>111621572</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,35 +1771,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1803,13 +1802,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536330.5895068019</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R11" t="n">
-        <v>7209122.557094801</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1851,12 +1850,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1890,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111622636</v>
+        <v>111623556</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1902,35 +1907,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1938,13 +1938,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535993.6234792916</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R12" t="n">
-        <v>7209210.275665025</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1992,6 +1992,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2010,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111621975</v>
+        <v>111622229</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,30 +2023,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2053,10 +2059,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536396.9230770704</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R13" t="n">
-        <v>7209171.174238501</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2101,18 +2107,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111623417</v>
+        <v>111623503</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2158,30 +2158,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2189,10 +2194,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535866.1958485778</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R14" t="n">
-        <v>7209556.480484258</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2243,7 +2248,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2262,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111624625</v>
+        <v>111623737</v>
       </c>
       <c r="B15" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2278,26 +2282,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2305,10 +2314,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536146.6289329219</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R15" t="n">
-        <v>7209377.11937314</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2353,18 +2362,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2383,10 +2386,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111623697</v>
+        <v>111624004</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2395,35 +2398,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2431,10 +2429,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>535988.4578048707</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R16" t="n">
-        <v>7209708.122271948</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2485,6 +2483,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2503,7 +2502,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111622312</v>
+        <v>111622736</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2546,10 +2545,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536040.9507766268</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R17" t="n">
-        <v>7209184.617312368</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2619,10 +2618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111621985</v>
+        <v>111623925</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2635,26 +2634,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2662,13 +2666,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536396.9230770704</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R18" t="n">
-        <v>7209171.174238501</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2716,7 +2720,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111622557</v>
+        <v>111624344</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2773,7 +2776,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2783,13 +2786,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536009.1715554149</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R19" t="n">
-        <v>7209185.502391796</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2855,10 +2858,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111622583</v>
+        <v>111622312</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2867,35 +2870,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2903,10 +2901,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536007.9265540047</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R20" t="n">
-        <v>7209183.371993401</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2951,17 +2949,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2980,10 +2974,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111623057</v>
+        <v>111624796</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2992,25 +2986,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3023,13 +3017,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536049.8462557254</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R21" t="n">
-        <v>7209289.644754019</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3096,10 +3090,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111623126</v>
+        <v>111624781</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3108,25 +3102,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3139,13 +3133,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536023.4663215687</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R22" t="n">
-        <v>7209299.479105573</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3185,6 +3179,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3212,10 +3211,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111625169</v>
+        <v>111625227</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3228,31 +3227,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3260,10 +3254,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536263.4947354996</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R23" t="n">
-        <v>7209449.609840255</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3314,6 +3308,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3332,10 +3327,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111623887</v>
+        <v>111622734</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3344,30 +3339,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3375,13 +3375,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535978.2032259003</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R24" t="n">
-        <v>7209715.612372425</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3429,7 +3429,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3448,10 +3447,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111623569</v>
+        <v>111622318</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3464,31 +3463,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3496,13 +3490,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535929.7413597835</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R25" t="n">
-        <v>7209590.241238016</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3550,6 +3544,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3568,7 +3563,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111622734</v>
+        <v>111625160</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3616,13 +3611,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>535953.8130829642</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R26" t="n">
-        <v>7209209.795134133</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3688,10 +3683,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623026</v>
+        <v>111624052</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3700,25 +3695,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3731,13 +3726,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536102.963546137</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R27" t="n">
-        <v>7209275.480738332</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3804,7 +3799,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111623539</v>
+        <v>111621552</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3842,7 +3837,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3852,13 +3847,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>535903.0276557686</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R28" t="n">
-        <v>7209592.880347125</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3908,6 +3903,21 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3924,10 +3934,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111623001</v>
+        <v>111622590</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3940,21 +3950,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3967,13 +3977,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536109.6063802312</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R29" t="n">
-        <v>7209286.560724956</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4040,10 +4050,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111624796</v>
+        <v>111623468</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4056,26 +4066,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4083,10 +4098,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536163.4453901229</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R30" t="n">
-        <v>7209387.476444452</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4137,7 +4152,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4156,7 +4170,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111624097</v>
+        <v>111622152</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4204,13 +4218,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535928.2260010642</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R31" t="n">
-        <v>7209575.417457776</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4260,6 +4274,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4276,7 +4305,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111624450</v>
+        <v>111622173</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4324,13 +4353,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536057.8671864467</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R32" t="n">
-        <v>7209431.885401525</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4380,6 +4409,21 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4396,10 +4440,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111624781</v>
+        <v>111623001</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4412,21 +4456,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4439,13 +4483,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536163.4453901229</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R33" t="n">
-        <v>7209387.476444452</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4485,11 +4529,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4517,10 +4556,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111623493</v>
+        <v>111623740</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4529,35 +4568,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4565,10 +4599,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535838.0792552171</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R34" t="n">
-        <v>7209570.101763099</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4619,6 +4653,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4637,7 +4672,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111623000</v>
+        <v>111623569</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4685,13 +4720,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536109.6063802312</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R35" t="n">
-        <v>7209286.560724956</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S35" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4757,10 +4792,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111624558</v>
+        <v>111623904</v>
       </c>
       <c r="B36" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4773,21 +4808,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4795,10 +4840,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536083.1087774199</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R36" t="n">
-        <v>7209411.039029445</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4849,7 +4894,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4868,7 +4912,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111625148</v>
+        <v>111624450</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4916,10 +4960,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536244.5255485425</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R37" t="n">
-        <v>7209442.18746885</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4988,10 +5032,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111625227</v>
+        <v>111624238</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5004,26 +5048,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5031,10 +5080,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536368.8900330348</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R38" t="n">
-        <v>7209489.813207326</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5085,7 +5134,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5104,10 +5152,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111622996</v>
+        <v>111623592</v>
       </c>
       <c r="B39" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5116,30 +5164,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5147,13 +5200,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536109.6063802312</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R39" t="n">
-        <v>7209286.560724956</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5201,7 +5254,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5220,10 +5272,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111621552</v>
+        <v>111623672</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5232,35 +5284,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5268,13 +5315,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536390.751010091</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R40" t="n">
-        <v>7208948.130241925</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5322,23 +5369,9 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5355,10 +5388,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111622318</v>
+        <v>111625148</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5371,26 +5404,31 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5398,13 +5436,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536040.9507766268</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R41" t="n">
-        <v>7209184.617312368</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5452,7 +5490,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5471,7 +5508,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111624238</v>
+        <v>111623840</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5519,10 +5556,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536021.4365124467</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R42" t="n">
-        <v>7209467.40269117</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5591,7 +5628,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111624010</v>
+        <v>111622557</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5629,7 +5666,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -5639,13 +5676,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>535979.5667387084</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R43" t="n">
-        <v>7209602.686786775</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5711,7 +5748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623925</v>
+        <v>111623539</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5749,7 +5786,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5759,10 +5796,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535975.1632773781</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R44" t="n">
-        <v>7209651.702600373</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5831,10 +5868,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111623904</v>
+        <v>111624625</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5847,31 +5884,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5879,10 +5911,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535966.8369070068</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R45" t="n">
-        <v>7209674.867268311</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5927,12 +5959,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6071,10 +6109,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111624052</v>
+        <v>111623057</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6083,25 +6121,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6114,13 +6152,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>535928.2260010642</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R47" t="n">
-        <v>7209575.417457776</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6187,7 +6225,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111621484</v>
+        <v>111622583</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6235,13 +6273,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536395.2396464556</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R48" t="n">
-        <v>7208927.45277346</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6283,6 +6321,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6291,21 +6334,6 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6322,7 +6350,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111623737</v>
+        <v>111621565</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6360,7 +6388,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6370,10 +6398,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>535968.9484369244</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R49" t="n">
-        <v>7209745.533198988</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6426,6 +6454,21 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6442,10 +6485,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111623828</v>
+        <v>111624010</v>
       </c>
       <c r="B50" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6454,30 +6497,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6485,10 +6533,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535969.6370432132</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R50" t="n">
-        <v>7209758.654224422</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6539,7 +6587,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6558,10 +6605,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111622173</v>
+        <v>111623126</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6570,35 +6617,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6606,13 +6648,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536211.5596349295</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R51" t="n">
-        <v>7208983.18093912</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6660,23 +6702,9 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6693,7 +6721,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111621424</v>
+        <v>111623380</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6731,7 +6759,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -6741,13 +6769,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536427.0683239623</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R52" t="n">
-        <v>7208922.764273487</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6797,21 +6825,6 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6944,7 +6957,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623511</v>
+        <v>111623076</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6982,7 +6995,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -6992,13 +7005,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535899.6858320399</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R54" t="n">
-        <v>7209589.032964948</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7064,7 +7077,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111623840</v>
+        <v>111621424</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7102,7 +7115,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -7112,13 +7125,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>535969.6370432132</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R55" t="n">
-        <v>7209758.654224422</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7168,6 +7181,21 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7184,7 +7212,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111624004</v>
+        <v>111622996</v>
       </c>
       <c r="B56" t="n">
         <v>90087</v>
@@ -7227,13 +7255,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>535979.5667387084</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R56" t="n">
-        <v>7209602.686786775</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7300,10 +7328,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623076</v>
+        <v>111623417</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7312,35 +7340,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7348,13 +7371,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536023.4663215687</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R57" t="n">
-        <v>7209299.479105573</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7402,6 +7425,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7420,10 +7444,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111624344</v>
+        <v>111621888</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7432,35 +7456,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7468,13 +7487,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536034.9019056049</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R58" t="n">
-        <v>7209439.645294238</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7522,6 +7541,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7540,10 +7560,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111623592</v>
+        <v>111623828</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7552,35 +7572,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7588,10 +7603,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535951.6286454553</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R59" t="n">
-        <v>7209601.503558567</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7642,6 +7657,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7660,7 +7676,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111625238</v>
+        <v>111622636</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7708,13 +7724,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>536371.5755853961</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R60" t="n">
-        <v>7209512.6894844</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7916,10 +7932,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111621572</v>
+        <v>111623511</v>
       </c>
       <c r="B62" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7928,30 +7944,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7959,10 +7980,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536384.5165957341</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R62" t="n">
-        <v>7208973.017290085</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -8007,35 +8028,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8052,7 +8052,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111621800</v>
+        <v>111624564</v>
       </c>
       <c r="B63" t="n">
         <v>90087</v>
@@ -8095,13 +8095,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536440.4635266946</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R63" t="n">
-        <v>7209143.783224681</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8168,10 +8168,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111622736</v>
+        <v>111623697</v>
       </c>
       <c r="B64" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8180,30 +8180,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8211,13 +8216,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535953.8130829642</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R64" t="n">
-        <v>7209209.795134133</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8265,7 +8270,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8284,10 +8288,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111621565</v>
+        <v>111621975</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8296,35 +8300,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8332,13 +8331,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>536384.5165957341</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R65" t="n">
-        <v>7208973.017290085</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8380,12 +8379,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8419,7 +8424,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111623672</v>
+        <v>111621800</v>
       </c>
       <c r="B66" t="n">
         <v>90087</v>
@@ -8462,13 +8467,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>535988.4578048707</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R66" t="n">
-        <v>7209708.122271948</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8535,10 +8540,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111624564</v>
+        <v>111624558</v>
       </c>
       <c r="B67" t="n">
-        <v>90087</v>
+        <v>89790</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8547,25 +8552,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3298</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Trådticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621741</v>
+        <v>111621404</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8667,21 +8667,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8694,10 +8694,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536601.4752199765</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R68" t="n">
-        <v>7209070.870306575</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8751,26 +8751,6 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL68" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8787,10 +8767,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621404</v>
+        <v>111621741</v>
       </c>
       <c r="B69" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8803,21 +8783,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8830,10 +8810,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536490.2040342408</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R69" t="n">
-        <v>7208921.420983357</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8887,6 +8867,26 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8903,10 +8903,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621709</v>
+        <v>111621754</v>
       </c>
       <c r="B70" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536588.4287280297</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R70" t="n">
-        <v>7209063.940678015</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9014,14 +9014,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9039,10 +9034,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621754</v>
+        <v>111621709</v>
       </c>
       <c r="B71" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9051,25 +9046,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9082,10 +9077,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536493.437552894</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R71" t="n">
-        <v>7209072.507141155</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9150,9 +9145,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111623026</v>
+        <v>111625148</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536102.963546137</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R2" t="n">
-        <v>7209275.480738332</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111621985</v>
+        <v>111624796</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536396.9230770704</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R3" t="n">
-        <v>7209171.174238501</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -912,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111624097</v>
+        <v>111622557</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -950,7 +954,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -960,13 +964,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535928.2260010642</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R4" t="n">
-        <v>7209575.417457776</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1032,7 +1036,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111621484</v>
+        <v>111622229</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1080,13 +1084,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536395.2396464556</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R5" t="n">
-        <v>7208927.45277346</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1167,7 +1171,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111623493</v>
+        <v>111621424</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1205,7 +1209,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1215,13 +1219,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535838.0792552171</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R6" t="n">
-        <v>7209570.101763099</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1271,6 +1275,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1287,10 +1306,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111625238</v>
+        <v>111622590</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,31 +1322,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1335,13 +1349,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536371.5755853961</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R7" t="n">
-        <v>7209512.6894844</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1389,6 +1403,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1407,10 +1422,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623887</v>
+        <v>111624450</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1419,30 +1434,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1450,10 +1470,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535978.2032259003</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R8" t="n">
-        <v>7209715.612372425</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1504,7 +1524,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1523,10 +1542,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111624006</v>
+        <v>111624781</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,21 +1558,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1585,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535979.5667387084</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R9" t="n">
-        <v>7209602.686786775</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1612,6 +1631,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1639,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111623000</v>
+        <v>111623001</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,31 +1679,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1741,6 +1760,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1759,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111621572</v>
+        <v>111623503</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1771,30 +1791,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1802,10 +1827,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536384.5165957341</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R11" t="n">
-        <v>7208973.017290085</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1850,35 +1875,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1895,10 +1899,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623556</v>
+        <v>111623569</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1907,30 +1911,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1992,7 +2001,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2011,7 +2019,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111622229</v>
+        <v>111623493</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2049,7 +2057,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2059,13 +2067,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536040.4055433145</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R13" t="n">
-        <v>7209159.649405509</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2115,21 +2123,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2146,7 +2139,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111623503</v>
+        <v>111623737</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2184,7 +2177,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2194,10 +2187,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535856.860287422</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R14" t="n">
-        <v>7209593.170475948</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2266,7 +2259,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111623737</v>
+        <v>111623380</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2304,7 +2297,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2314,10 +2307,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535968.9484369244</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R15" t="n">
-        <v>7209745.533198988</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2386,7 +2379,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111624004</v>
+        <v>111621888</v>
       </c>
       <c r="B16" t="n">
         <v>90087</v>
@@ -2429,13 +2422,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>535979.5667387084</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R16" t="n">
-        <v>7209602.686786775</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2502,7 +2495,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111622736</v>
+        <v>111623026</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2545,13 +2538,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>535953.8130829642</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R17" t="n">
-        <v>7209209.795134133</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2618,7 +2611,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623925</v>
+        <v>111623000</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2666,13 +2659,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535975.1632773781</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R18" t="n">
-        <v>7209651.702600373</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2738,7 +2731,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111624344</v>
+        <v>111623076</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2776,7 +2769,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2786,13 +2779,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536034.9019056049</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R19" t="n">
-        <v>7209439.645294238</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2858,10 +2851,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111622312</v>
+        <v>111622318</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2870,25 +2863,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2974,10 +2967,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111624796</v>
+        <v>111625238</v>
       </c>
       <c r="B21" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2990,26 +2983,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3017,10 +3015,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536163.4453901229</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R21" t="n">
-        <v>7209387.476444452</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3071,7 +3069,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3090,10 +3087,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111624781</v>
+        <v>111625174</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3106,26 +3103,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3133,10 +3135,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536163.4453901229</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R22" t="n">
-        <v>7209387.476444452</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+          <t>Ringhack på 2 granar</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3192,7 +3194,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3327,7 +3328,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111622734</v>
+        <v>111623511</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3375,13 +3376,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535953.8130829642</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R24" t="n">
-        <v>7209209.795134133</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3447,10 +3448,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111622318</v>
+        <v>111623672</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3459,25 +3460,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3490,13 +3491,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>536040.9507766268</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R25" t="n">
-        <v>7209184.617312368</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3563,10 +3564,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111625160</v>
+        <v>111624558</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89790</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3579,31 +3580,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3611,10 +3602,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536263.4947354996</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R26" t="n">
-        <v>7209449.609840255</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3665,6 +3656,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3683,10 +3675,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111624052</v>
+        <v>111623828</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3695,25 +3687,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3726,10 +3718,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>535928.2260010642</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R27" t="n">
-        <v>7209575.417457776</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3799,7 +3791,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111621552</v>
+        <v>111624010</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3837,7 +3829,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3847,13 +3839,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536390.751010091</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R28" t="n">
-        <v>7208948.130241925</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3903,21 +3895,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3934,10 +3911,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111622590</v>
+        <v>111624238</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3950,26 +3927,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3977,13 +3959,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536007.9265540047</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R29" t="n">
-        <v>7209183.371993401</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4031,7 +4013,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4050,10 +4031,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111623468</v>
+        <v>111622612</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4066,31 +4047,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4098,13 +4074,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>535866.1958485778</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R30" t="n">
-        <v>7209556.480484258</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4152,6 +4128,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4170,10 +4147,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111622152</v>
+        <v>111621975</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4182,35 +4159,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4218,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536330.5895068019</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R31" t="n">
-        <v>7209122.557094801</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4266,12 +4238,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4305,10 +4283,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111622173</v>
+        <v>111622312</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4317,35 +4295,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4353,10 +4326,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536211.5596349295</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R32" t="n">
-        <v>7208983.18093912</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4407,23 +4380,9 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4440,10 +4399,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111623001</v>
+        <v>111623840</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4456,26 +4415,31 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4483,13 +4447,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536109.6063802312</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R33" t="n">
-        <v>7209286.560724956</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4537,7 +4501,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4556,7 +4519,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111623740</v>
+        <v>111623862</v>
       </c>
       <c r="B34" t="n">
         <v>90087</v>
@@ -4599,10 +4562,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535968.9484369244</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R34" t="n">
-        <v>7209745.533198988</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4672,7 +4635,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111623569</v>
+        <v>111623925</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4720,10 +4683,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>535929.7413597835</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R35" t="n">
-        <v>7209590.241238016</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4792,10 +4755,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111623904</v>
+        <v>111621872</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4808,31 +4771,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4840,13 +4798,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>535966.8369070068</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R36" t="n">
-        <v>7209674.867268311</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4894,8 +4852,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4912,7 +4891,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111624450</v>
+        <v>111622734</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4960,13 +4939,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536057.8671864467</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R37" t="n">
-        <v>7209431.885401525</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5032,10 +5011,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111624238</v>
+        <v>111624052</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5048,31 +5027,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5080,10 +5054,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536021.4365124467</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R38" t="n">
-        <v>7209467.40269117</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5134,6 +5108,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5152,10 +5127,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623592</v>
+        <v>111623126</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5164,35 +5139,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5200,13 +5170,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>535951.6286454553</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R39" t="n">
-        <v>7209601.503558567</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5254,6 +5224,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5272,10 +5243,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111623672</v>
+        <v>111623592</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5284,30 +5255,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5315,10 +5291,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535988.4578048707</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R40" t="n">
-        <v>7209708.122271948</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5369,7 +5345,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5388,7 +5363,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111625148</v>
+        <v>111624097</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5436,10 +5411,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536244.5255485425</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R41" t="n">
-        <v>7209442.18746885</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5508,10 +5483,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111623840</v>
+        <v>111623556</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5520,35 +5495,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5556,10 +5526,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535969.6370432132</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R42" t="n">
-        <v>7209758.654224422</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5610,6 +5580,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5628,10 +5599,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111622557</v>
+        <v>111624625</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5644,31 +5615,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5676,13 +5642,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536009.1715554149</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R43" t="n">
-        <v>7209185.502391796</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5724,12 +5690,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5748,7 +5720,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623539</v>
+        <v>111623697</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5796,10 +5768,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535903.0276557686</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R44" t="n">
-        <v>7209592.880347125</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5868,10 +5840,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111624625</v>
+        <v>111622736</v>
       </c>
       <c r="B45" t="n">
-        <v>89401</v>
+        <v>90087</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5880,25 +5852,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1108</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5911,13 +5883,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536146.6289329219</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R45" t="n">
-        <v>7209377.11937314</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5957,11 +5929,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5989,10 +5956,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111623155</v>
+        <v>111624564</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6001,35 +5968,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6037,13 +5999,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535977.4727609204</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R46" t="n">
-        <v>7209320.07617898</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6091,6 +6053,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6109,10 +6072,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111623057</v>
+        <v>111622152</v>
       </c>
       <c r="B47" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6121,30 +6084,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6152,13 +6120,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536049.8462557254</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R47" t="n">
-        <v>7209289.644754019</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6206,9 +6174,23 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6350,7 +6332,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111621565</v>
+        <v>111623155</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6398,13 +6380,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536384.5165957341</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R49" t="n">
-        <v>7208973.017290085</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6454,21 +6436,6 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6485,7 +6452,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111624010</v>
+        <v>111623468</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6523,7 +6490,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -6533,10 +6500,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535979.5667387084</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R50" t="n">
-        <v>7209602.686786775</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6605,7 +6572,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111623126</v>
+        <v>111624004</v>
       </c>
       <c r="B51" t="n">
         <v>90087</v>
@@ -6648,13 +6615,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536023.4663215687</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R51" t="n">
-        <v>7209299.479105573</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S51" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6721,7 +6688,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623380</v>
+        <v>111621565</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6769,10 +6736,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535912.0367731415</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R52" t="n">
-        <v>7209513.038373807</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6825,6 +6792,21 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6841,10 +6823,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111622612</v>
+        <v>111623057</v>
       </c>
       <c r="B53" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6853,25 +6835,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6884,13 +6866,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535976.2494590636</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R53" t="n">
-        <v>7209175.797223139</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6957,7 +6939,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623076</v>
+        <v>111623539</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6995,7 +6977,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -7005,13 +6987,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536023.4663215687</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R54" t="n">
-        <v>7209299.479105573</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7077,10 +7059,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111621424</v>
+        <v>111622996</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7089,35 +7071,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7125,13 +7102,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536427.0683239623</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R55" t="n">
-        <v>7208922.764273487</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7179,23 +7156,9 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7212,10 +7175,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111622996</v>
+        <v>111622173</v>
       </c>
       <c r="B56" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7224,30 +7187,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7255,13 +7223,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536109.6063802312</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R56" t="n">
-        <v>7209286.560724956</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7309,9 +7277,23 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -7328,10 +7310,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623417</v>
+        <v>111621985</v>
       </c>
       <c r="B57" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7340,25 +7322,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7371,13 +7353,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>535866.1958485778</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R57" t="n">
-        <v>7209556.480484258</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7444,10 +7426,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111621888</v>
+        <v>111621484</v>
       </c>
       <c r="B58" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7456,30 +7438,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7487,13 +7474,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536416.0900422698</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R58" t="n">
-        <v>7209162.523791903</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7541,9 +7528,23 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
@@ -7560,7 +7561,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111623828</v>
+        <v>111623417</v>
       </c>
       <c r="B59" t="n">
         <v>90087</v>
@@ -7603,10 +7604,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535969.6370432132</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R59" t="n">
-        <v>7209758.654224422</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7796,10 +7797,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111621872</v>
+        <v>111621552</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7812,26 +7813,31 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7839,10 +7845,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>536440.3290520471</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R61" t="n">
-        <v>7209154.781605188</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7893,7 +7899,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7907,14 +7912,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL61" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Picea abies # Toppknäckt gran</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111623511</v>
+        <v>111621800</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7944,35 +7944,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7980,13 +7975,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>535899.6858320399</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R62" t="n">
-        <v>7209589.032964948</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8034,6 +8029,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8052,7 +8048,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111624564</v>
+        <v>111621572</v>
       </c>
       <c r="B63" t="n">
         <v>90087</v>
@@ -8095,10 +8091,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536083.1087774199</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R63" t="n">
-        <v>7209411.039029445</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8143,6 +8139,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8152,6 +8153,21 @@
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8168,10 +8184,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623697</v>
+        <v>111623740</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8180,35 +8196,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8216,10 +8227,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535988.4578048707</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R64" t="n">
-        <v>7209708.122271948</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8270,6 +8281,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8288,10 +8300,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111621975</v>
+        <v>111623904</v>
       </c>
       <c r="B65" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8300,30 +8312,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8331,13 +8348,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>536396.9230770704</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R65" t="n">
-        <v>7209171.174238501</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8379,35 +8396,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ65" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -8424,10 +8420,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111621800</v>
+        <v>111624344</v>
       </c>
       <c r="B66" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8436,30 +8432,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8467,13 +8468,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536440.4635266946</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R66" t="n">
-        <v>7209143.783224681</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8521,7 +8522,6 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111624558</v>
+        <v>111624006</v>
       </c>
       <c r="B67" t="n">
-        <v>89790</v>
+        <v>89423</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8556,16 +8556,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6040186</v>
+        <v>5432</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8578,10 +8583,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>536083.1087774199</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R67" t="n">
-        <v>7209411.039029445</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8651,10 +8656,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621404</v>
+        <v>111621391</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8667,26 +8672,31 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8694,10 +8704,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536490.2040342408</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R68" t="n">
-        <v>7208921.420983357</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8748,9 +8758,23 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8767,10 +8791,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621741</v>
+        <v>111621754</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8779,25 +8803,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8810,10 +8834,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536601.4752199765</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R69" t="n">
-        <v>7209070.870306575</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8878,14 +8902,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8903,10 +8922,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621754</v>
+        <v>111621741</v>
       </c>
       <c r="B70" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8915,25 +8934,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8946,10 +8965,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536493.437552894</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R70" t="n">
-        <v>7209072.507141155</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9014,9 +9033,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9034,10 +9058,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621709</v>
+        <v>111621404</v>
       </c>
       <c r="B71" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9050,21 +9074,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9077,10 +9101,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536588.4287280297</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R71" t="n">
-        <v>7209063.940678015</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9134,26 +9158,6 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ71" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK71" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO71" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
@@ -9170,10 +9174,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621391</v>
+        <v>111621709</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9186,31 +9190,26 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9218,10 +9217,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536493.9251405013</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R72" t="n">
-        <v>7208859.691794363</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9272,6 +9271,7 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9285,9 +9285,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111625148</v>
+        <v>111624450</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536244.5255485425</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R2" t="n">
-        <v>7209442.18746885</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111624796</v>
+        <v>111623592</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,26 +816,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536163.4453901229</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R3" t="n">
-        <v>7209387.476444452</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -897,7 +902,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -916,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111622557</v>
+        <v>111624781</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,31 +936,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,13 +963,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536009.1715554149</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R4" t="n">
-        <v>7209185.502391796</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,12 +1011,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1036,7 +1041,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111622229</v>
+        <v>111623569</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1084,13 +1089,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536040.4055433145</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R5" t="n">
-        <v>7209159.649405509</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1140,21 +1145,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1171,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111621424</v>
+        <v>111623417</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1183,35 +1173,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1219,13 +1204,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536427.0683239623</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R6" t="n">
-        <v>7208922.764273487</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1273,23 +1258,9 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1306,7 +1277,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111622590</v>
+        <v>111622318</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1349,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536007.9265540047</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R7" t="n">
-        <v>7209183.371993401</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1422,10 +1393,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111624450</v>
+        <v>111625227</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1438,31 +1409,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1470,10 +1436,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536057.8671864467</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R8" t="n">
-        <v>7209431.885401525</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1524,6 +1490,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1542,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111624781</v>
+        <v>111624796</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1558,21 +1525,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1633,11 +1600,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1663,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111623001</v>
+        <v>111621484</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,26 +1641,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1706,13 +1673,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536109.6063802312</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R10" t="n">
-        <v>7209286.560724956</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1760,9 +1727,23 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1779,7 +1760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111623503</v>
+        <v>111622734</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1827,13 +1808,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535856.860287422</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R11" t="n">
-        <v>7209593.170475948</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1899,10 +1880,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623569</v>
+        <v>111623126</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1911,35 +1892,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1947,13 +1923,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535929.7413597835</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R12" t="n">
-        <v>7209590.241238016</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2001,6 +1977,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2019,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623493</v>
+        <v>111623740</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2031,35 +2008,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2067,10 +2039,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535838.0792552171</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R13" t="n">
-        <v>7209570.101763099</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2121,6 +2093,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2139,7 +2112,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111623737</v>
+        <v>111624010</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2177,7 +2150,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2187,10 +2160,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535968.9484369244</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R14" t="n">
-        <v>7209745.533198988</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2259,10 +2232,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111623380</v>
+        <v>111622590</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2275,31 +2248,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2307,13 +2275,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535912.0367731415</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R15" t="n">
-        <v>7209513.038373807</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2361,6 +2329,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2379,10 +2348,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111621888</v>
+        <v>111625174</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2391,30 +2360,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2422,13 +2396,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536416.0900422698</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R16" t="n">
-        <v>7209162.523791903</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2470,13 +2444,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack på 2 granar</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2495,7 +2473,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111623026</v>
+        <v>111621975</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2538,13 +2516,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536102.963546137</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R17" t="n">
-        <v>7209275.480738332</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2584,6 +2562,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2595,6 +2578,21 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2611,7 +2609,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623000</v>
+        <v>111623493</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2649,7 +2647,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2659,13 +2657,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536109.6063802312</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R18" t="n">
-        <v>7209286.560724956</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2731,10 +2729,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111623076</v>
+        <v>111623001</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2747,31 +2745,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2779,10 +2772,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536023.4663215687</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R19" t="n">
-        <v>7209299.479105573</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2833,6 +2826,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2851,10 +2845,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111622318</v>
+        <v>111624558</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>89790</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2867,21 +2861,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2894,13 +2883,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536040.9507766268</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R20" t="n">
-        <v>7209184.617312368</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2967,7 +2956,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111625238</v>
+        <v>111622993</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3015,13 +3004,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536371.5755853961</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R21" t="n">
-        <v>7209512.6894844</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3087,10 +3076,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111625174</v>
+        <v>111622736</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3099,35 +3088,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3135,13 +3119,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536263.4947354996</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R22" t="n">
-        <v>7209449.609840255</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3183,17 +3167,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack på 2 granar</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3212,10 +3192,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111625227</v>
+        <v>111623737</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3228,26 +3208,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3255,10 +3240,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536368.8900330348</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R23" t="n">
-        <v>7209489.813207326</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3309,7 +3294,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3328,10 +3312,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111623511</v>
+        <v>111623057</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3340,35 +3324,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3376,13 +3355,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535899.6858320399</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R24" t="n">
-        <v>7209589.032964948</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3430,6 +3409,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3448,7 +3428,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111623672</v>
+        <v>111624564</v>
       </c>
       <c r="B25" t="n">
         <v>90087</v>
@@ -3491,10 +3471,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535988.4578048707</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R25" t="n">
-        <v>7209708.122271948</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3564,10 +3544,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111624558</v>
+        <v>111625238</v>
       </c>
       <c r="B26" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3580,21 +3560,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3602,10 +3592,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536083.1087774199</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R26" t="n">
-        <v>7209411.039029445</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3656,7 +3646,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3675,10 +3664,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623828</v>
+        <v>111621985</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3687,25 +3676,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3718,13 +3707,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>535969.6370432132</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R27" t="n">
-        <v>7209758.654224422</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3791,10 +3780,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111624010</v>
+        <v>111622312</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3803,35 +3792,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3839,13 +3823,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>535979.5667387084</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R28" t="n">
-        <v>7209602.686786775</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3893,6 +3877,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3911,7 +3896,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111624238</v>
+        <v>111622557</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3949,7 +3934,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3959,13 +3944,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536021.4365124467</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R29" t="n">
-        <v>7209467.40269117</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4031,10 +4016,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111622612</v>
+        <v>111621872</v>
       </c>
       <c r="B30" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4047,21 +4032,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4074,10 +4059,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>535976.2494590636</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R30" t="n">
-        <v>7209175.797223139</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4131,6 +4116,26 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4147,7 +4152,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111621975</v>
+        <v>111623862</v>
       </c>
       <c r="B31" t="n">
         <v>90087</v>
@@ -4190,13 +4195,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536396.9230770704</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R31" t="n">
-        <v>7209171.174238501</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4236,11 +4241,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4252,21 +4252,6 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4283,10 +4268,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111622312</v>
+        <v>111623468</v>
       </c>
       <c r="B32" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4295,30 +4280,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4326,13 +4316,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536040.9507766268</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R32" t="n">
-        <v>7209184.617312368</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4380,7 +4370,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4399,10 +4388,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111623840</v>
+        <v>111621572</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4411,35 +4400,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4447,10 +4431,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>535969.6370432132</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R33" t="n">
-        <v>7209758.654224422</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4495,14 +4479,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4519,10 +4524,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111623862</v>
+        <v>111622636</v>
       </c>
       <c r="B34" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4531,30 +4536,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4562,13 +4572,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535978.2032259003</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R34" t="n">
-        <v>7209715.612372425</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4616,7 +4626,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4635,10 +4644,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111623925</v>
+        <v>111623026</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4647,35 +4656,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4683,13 +4687,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>535975.1632773781</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R35" t="n">
-        <v>7209651.702600373</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4737,6 +4741,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4755,10 +4760,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111621872</v>
+        <v>111623697</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4771,26 +4776,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4798,13 +4808,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536440.3290520471</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R36" t="n">
-        <v>7209154.781605188</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4852,29 +4862,8 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4891,7 +4880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111622734</v>
+        <v>111624344</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4939,13 +4928,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>535953.8130829642</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R37" t="n">
-        <v>7209209.795134133</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5011,10 +5000,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111624052</v>
+        <v>111623904</v>
       </c>
       <c r="B38" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5027,26 +5016,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5054,10 +5048,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535928.2260010642</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R38" t="n">
-        <v>7209575.417457776</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5108,7 +5102,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5127,10 +5120,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623126</v>
+        <v>111622152</v>
       </c>
       <c r="B39" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5139,30 +5132,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5170,13 +5168,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536023.4663215687</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R39" t="n">
-        <v>7209299.479105573</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5224,9 +5222,23 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5243,7 +5255,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111623592</v>
+        <v>111624097</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5291,10 +5303,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535951.6286454553</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R40" t="n">
-        <v>7209601.503558567</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5363,7 +5375,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111624097</v>
+        <v>111621552</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5401,7 +5413,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -5411,13 +5423,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535928.2260010642</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R41" t="n">
-        <v>7209575.417457776</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5467,6 +5479,21 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5483,10 +5510,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111623556</v>
+        <v>111621565</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5495,30 +5522,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5526,10 +5558,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535929.7413597835</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R42" t="n">
-        <v>7209590.241238016</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5580,9 +5612,23 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5599,10 +5645,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111624625</v>
+        <v>111622173</v>
       </c>
       <c r="B43" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5615,26 +5661,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5642,13 +5693,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536146.6289329219</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R43" t="n">
-        <v>7209377.11937314</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5690,20 +5741,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5720,7 +5780,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623697</v>
+        <v>111623539</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5768,10 +5828,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535988.4578048707</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R44" t="n">
-        <v>7209708.122271948</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5840,7 +5900,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111622736</v>
+        <v>111621800</v>
       </c>
       <c r="B45" t="n">
         <v>90087</v>
@@ -5883,10 +5943,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535953.8130829642</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R45" t="n">
-        <v>7209209.795134133</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5956,10 +6016,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111624564</v>
+        <v>111623840</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5968,30 +6028,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -5999,10 +6064,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>536083.1087774199</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R46" t="n">
-        <v>7209411.039029445</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6053,7 +6118,6 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6072,10 +6136,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111622152</v>
+        <v>111624004</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6084,35 +6148,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6120,13 +6179,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536330.5895068019</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R47" t="n">
-        <v>7209122.557094801</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6174,23 +6233,9 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6207,10 +6252,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111622583</v>
+        <v>111624006</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6223,31 +6268,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6255,13 +6295,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536007.9265540047</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R48" t="n">
-        <v>7209183.371993401</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6303,17 +6343,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6332,7 +6368,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111623155</v>
+        <v>111625155</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6380,13 +6416,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>535977.4727609204</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R49" t="n">
-        <v>7209320.07617898</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6452,10 +6488,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111623468</v>
+        <v>111624052</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6468,31 +6504,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6500,10 +6531,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535866.1958485778</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R50" t="n">
-        <v>7209556.480484258</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6554,6 +6585,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6572,7 +6604,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111624004</v>
+        <v>111621888</v>
       </c>
       <c r="B51" t="n">
         <v>90087</v>
@@ -6615,13 +6647,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535979.5667387084</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R51" t="n">
-        <v>7209602.686786775</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6688,10 +6720,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111621565</v>
+        <v>111623672</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6700,35 +6732,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6736,10 +6763,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536384.5165957341</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R52" t="n">
-        <v>7208973.017290085</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6790,23 +6817,9 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6823,10 +6836,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111623057</v>
+        <v>111624625</v>
       </c>
       <c r="B53" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6835,25 +6848,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6866,13 +6879,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536049.8462557254</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R53" t="n">
-        <v>7209289.644754019</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S53" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6912,6 +6925,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6939,10 +6957,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623539</v>
+        <v>111623828</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6951,35 +6969,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6987,10 +7000,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535903.0276557686</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R54" t="n">
-        <v>7209592.880347125</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7041,6 +7054,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7059,10 +7073,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111622996</v>
+        <v>111622229</v>
       </c>
       <c r="B55" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7071,30 +7085,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7102,13 +7121,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536109.6063802312</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R55" t="n">
-        <v>7209286.560724956</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S55" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7156,9 +7175,23 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7175,10 +7208,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111622173</v>
+        <v>111622996</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7187,35 +7220,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7223,13 +7251,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536211.5596349295</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R56" t="n">
-        <v>7208983.18093912</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7277,23 +7305,9 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -7310,10 +7324,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111621985</v>
+        <v>111622612</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7326,21 +7340,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7353,10 +7367,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536396.9230770704</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R57" t="n">
-        <v>7209171.174238501</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7426,7 +7440,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111621484</v>
+        <v>111624238</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7464,7 +7478,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7474,10 +7488,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536395.2396464556</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R58" t="n">
-        <v>7208927.45277346</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7530,21 +7544,6 @@
       </c>
       <c r="AG58" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
@@ -7561,10 +7560,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111623417</v>
+        <v>111623503</v>
       </c>
       <c r="B59" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7573,30 +7572,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7604,10 +7608,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535866.1958485778</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R59" t="n">
-        <v>7209556.480484258</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7658,7 +7662,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111622636</v>
+        <v>111623511</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7725,13 +7728,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535993.6234792916</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R60" t="n">
-        <v>7209210.275665025</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7797,10 +7800,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111621552</v>
+        <v>111623556</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7809,35 +7812,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7845,13 +7843,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>536390.751010091</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R61" t="n">
-        <v>7208948.130241925</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7899,23 +7897,9 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ61" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -7932,10 +7916,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111621800</v>
+        <v>111623076</v>
       </c>
       <c r="B62" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7944,30 +7928,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7975,13 +7964,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536440.4635266946</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R62" t="n">
-        <v>7209143.783224681</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8029,7 +8018,6 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8048,10 +8036,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111621572</v>
+        <v>111623380</v>
       </c>
       <c r="B63" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8060,30 +8048,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8091,10 +8084,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536384.5165957341</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R63" t="n">
-        <v>7208973.017290085</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8139,35 +8132,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8184,10 +8156,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623740</v>
+        <v>111621424</v>
       </c>
       <c r="B64" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8196,30 +8168,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8227,13 +8204,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535968.9484369244</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R64" t="n">
-        <v>7209745.533198988</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8281,9 +8258,23 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
@@ -8300,7 +8291,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111623904</v>
+        <v>111623155</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8338,7 +8329,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -8348,13 +8339,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535966.8369070068</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R65" t="n">
-        <v>7209674.867268311</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8420,7 +8411,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111624344</v>
+        <v>111623925</v>
       </c>
       <c r="B66" t="n">
         <v>56398</v>
@@ -8458,7 +8449,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -8468,10 +8459,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536034.9019056049</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R66" t="n">
-        <v>7209439.645294238</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8540,10 +8531,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111624006</v>
+        <v>111622583</v>
       </c>
       <c r="B67" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8556,26 +8547,31 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8583,13 +8579,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535979.5667387084</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R67" t="n">
-        <v>7209602.686786775</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8631,13 +8627,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621391</v>
+        <v>111621741</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8672,31 +8672,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8704,10 +8699,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536493.9251405013</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R68" t="n">
-        <v>7208859.691794363</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8758,6 +8753,7 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8771,9 +8767,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8791,10 +8792,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621754</v>
+        <v>111621709</v>
       </c>
       <c r="B69" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8803,25 +8804,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8834,10 +8835,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536493.437552894</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R69" t="n">
-        <v>7209072.507141155</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8902,9 +8903,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8922,10 +8928,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621741</v>
+        <v>111621754</v>
       </c>
       <c r="B70" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8934,25 +8940,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8965,10 +8971,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536601.4752199765</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R70" t="n">
-        <v>7209070.870306575</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9033,14 +9039,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9174,10 +9175,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621709</v>
+        <v>111621391</v>
       </c>
       <c r="B72" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9190,26 +9191,31 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9217,10 +9223,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536588.4287280297</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R72" t="n">
-        <v>7209063.940678015</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9271,7 +9277,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9285,14 +9290,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -3664,10 +3664,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111621985</v>
+        <v>111621872</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3680,21 +3680,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536396.9230770704</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R27" t="n">
-        <v>7209171.174238501</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3764,6 +3764,26 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3780,10 +3800,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111622312</v>
+        <v>111621985</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3792,25 +3812,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3823,10 +3843,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536040.9507766268</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R28" t="n">
-        <v>7209184.617312368</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3896,10 +3916,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111622557</v>
+        <v>111622312</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3908,35 +3928,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3944,10 +3959,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536009.1715554149</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R29" t="n">
-        <v>7209185.502391796</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3998,6 +4013,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4016,10 +4032,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111621872</v>
+        <v>111622557</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4032,26 +4048,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4059,10 +4080,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536440.3290520471</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R30" t="n">
-        <v>7209154.781605188</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4113,29 +4134,8 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111624450</v>
+        <v>111623076</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -718,7 +718,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536057.8671864467</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R2" t="n">
-        <v>7209431.885401525</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623592</v>
+        <v>111623155</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535951.6286454553</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R3" t="n">
-        <v>7209601.503558567</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111624781</v>
+        <v>111622229</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,26 +936,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -963,13 +968,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536163.4453901229</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R4" t="n">
-        <v>7209387.476444452</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1011,20 +1016,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1041,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111623569</v>
+        <v>111621424</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1089,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>535929.7413597835</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R5" t="n">
-        <v>7209590.241238016</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1145,6 +1159,21 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1161,10 +1190,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111623417</v>
+        <v>111625160</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,30 +1202,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,10 +1238,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535866.1958485778</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R6" t="n">
-        <v>7209556.480484258</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1258,7 +1292,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1277,10 +1310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111622318</v>
+        <v>111622583</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1293,26 +1326,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1320,10 +1358,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536040.9507766268</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R7" t="n">
-        <v>7209184.617312368</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,13 +1406,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1393,10 +1435,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111625227</v>
+        <v>111623057</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,25 +1447,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1436,13 +1478,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536368.8900330348</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R8" t="n">
-        <v>7209489.813207326</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1509,10 +1551,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111624796</v>
+        <v>111623503</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,26 +1567,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1552,10 +1599,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536163.4453901229</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R9" t="n">
-        <v>7209387.476444452</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1606,7 +1653,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1625,7 +1671,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111621484</v>
+        <v>111622993</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1663,7 +1709,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1673,13 +1719,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536395.2396464556</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R10" t="n">
-        <v>7208927.45277346</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1729,21 +1775,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1760,7 +1791,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111622734</v>
+        <v>111623493</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1808,13 +1839,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535953.8130829642</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R11" t="n">
-        <v>7209209.795134133</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1880,10 +1911,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623126</v>
+        <v>111624781</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1892,25 +1923,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1923,13 +1954,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536023.4663215687</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R12" t="n">
-        <v>7209299.479105573</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1969,6 +2000,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +2032,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623740</v>
+        <v>111623862</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2039,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535968.9484369244</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R13" t="n">
-        <v>7209745.533198988</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2112,7 +2148,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111624010</v>
+        <v>111624238</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2160,10 +2196,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535979.5667387084</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R14" t="n">
-        <v>7209602.686786775</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2232,10 +2268,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111622590</v>
+        <v>111623737</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2248,26 +2284,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2275,13 +2316,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536007.9265540047</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R15" t="n">
-        <v>7209183.371993401</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2329,7 +2370,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2348,7 +2388,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111625174</v>
+        <v>111622173</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2396,13 +2436,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536263.4947354996</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R16" t="n">
-        <v>7209449.609840255</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2444,11 +2484,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack på 2 granar</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2457,6 +2492,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2473,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111621975</v>
+        <v>111621484</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2485,30 +2535,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2516,13 +2571,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536396.9230770704</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R17" t="n">
-        <v>7209171.174238501</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2564,18 +2619,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2609,7 +2658,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623493</v>
+        <v>111621565</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2657,10 +2706,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535838.0792552171</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R18" t="n">
-        <v>7209570.101763099</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2713,6 +2762,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2729,10 +2793,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111623001</v>
+        <v>111625155</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2745,26 +2809,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2772,13 +2841,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536109.6063802312</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R19" t="n">
-        <v>7209286.560724956</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2826,7 +2895,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2845,10 +2913,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111624558</v>
+        <v>111623828</v>
       </c>
       <c r="B20" t="n">
-        <v>89790</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2857,20 +2925,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6040186</v>
+        <v>3298</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2883,10 +2956,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536083.1087774199</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R20" t="n">
-        <v>7209411.039029445</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2956,7 +3029,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111622993</v>
+        <v>111624010</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3004,13 +3077,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536109.6063802312</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R21" t="n">
-        <v>7209286.560724956</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3076,10 +3149,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111622736</v>
+        <v>111623539</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3088,30 +3161,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3119,13 +3197,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>535953.8130829642</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R22" t="n">
-        <v>7209209.795134133</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3173,7 +3251,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3192,7 +3269,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111623737</v>
+        <v>111623468</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3240,10 +3317,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>535968.9484369244</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R23" t="n">
-        <v>7209745.533198988</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3312,7 +3389,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111623057</v>
+        <v>111624004</v>
       </c>
       <c r="B24" t="n">
         <v>90087</v>
@@ -3355,13 +3432,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536049.8462557254</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R24" t="n">
-        <v>7209289.644754019</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3428,10 +3505,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111624564</v>
+        <v>111623925</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3440,30 +3517,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3471,10 +3553,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>536083.1087774199</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R25" t="n">
-        <v>7209411.039029445</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3525,7 +3607,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3544,7 +3625,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111625238</v>
+        <v>111623840</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3592,10 +3673,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536371.5755853961</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R26" t="n">
-        <v>7209512.6894844</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3664,10 +3745,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111621872</v>
+        <v>111624625</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3680,21 +3761,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3707,13 +3788,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536440.3290520471</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R27" t="n">
-        <v>7209154.781605188</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3753,6 +3834,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3764,26 +3850,6 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3916,10 +3982,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111622312</v>
+        <v>111624450</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3928,30 +3994,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3959,13 +4030,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536040.9507766268</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R29" t="n">
-        <v>7209184.617312368</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4013,7 +4084,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4032,7 +4102,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111622557</v>
+        <v>111623380</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4070,7 +4140,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4080,13 +4150,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536009.1715554149</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R30" t="n">
-        <v>7209185.502391796</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4152,7 +4222,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111623862</v>
+        <v>111623556</v>
       </c>
       <c r="B31" t="n">
         <v>90087</v>
@@ -4195,10 +4265,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535978.2032259003</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R31" t="n">
-        <v>7209715.612372425</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4268,10 +4338,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111623468</v>
+        <v>111622590</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4284,31 +4354,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4316,13 +4381,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>535866.1958485778</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R32" t="n">
-        <v>7209556.480484258</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4370,6 +4435,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4388,10 +4454,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111621572</v>
+        <v>111624097</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4400,30 +4466,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4431,10 +4502,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536384.5165957341</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R33" t="n">
-        <v>7208973.017290085</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4479,35 +4550,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4524,7 +4574,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111622636</v>
+        <v>111623592</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4572,13 +4622,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535993.6234792916</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R34" t="n">
-        <v>7209210.275665025</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4644,7 +4694,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111623026</v>
+        <v>111624564</v>
       </c>
       <c r="B35" t="n">
         <v>90087</v>
@@ -4687,13 +4737,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536102.963546137</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R35" t="n">
-        <v>7209275.480738332</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S35" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5000,10 +5050,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111623904</v>
+        <v>111622318</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5016,31 +5066,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5048,13 +5093,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535966.8369070068</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R38" t="n">
-        <v>7209674.867268311</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5102,6 +5147,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5120,10 +5166,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111622152</v>
+        <v>111623001</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5136,31 +5182,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5168,13 +5209,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536330.5895068019</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R39" t="n">
-        <v>7209122.557094801</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5222,23 +5263,9 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5255,10 +5282,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111624097</v>
+        <v>111621572</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5267,35 +5294,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5303,10 +5325,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535928.2260010642</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R40" t="n">
-        <v>7209575.417457776</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5351,14 +5373,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5375,10 +5418,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111621552</v>
+        <v>111624796</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5391,31 +5434,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5423,13 +5461,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536390.751010091</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R41" t="n">
-        <v>7208948.130241925</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5477,23 +5515,9 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5510,10 +5534,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111621565</v>
+        <v>111623672</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5522,35 +5546,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5558,10 +5577,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536384.5165957341</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R42" t="n">
-        <v>7208973.017290085</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5612,23 +5631,9 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5645,10 +5650,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111622173</v>
+        <v>111624052</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5661,31 +5666,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5693,13 +5693,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536211.5596349295</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R43" t="n">
-        <v>7208983.18093912</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5747,23 +5747,9 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5780,10 +5766,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623539</v>
+        <v>111621800</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5792,35 +5778,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5828,13 +5809,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535903.0276557686</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R44" t="n">
-        <v>7209592.880347125</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5882,6 +5863,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5900,10 +5882,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111621800</v>
+        <v>111622612</v>
       </c>
       <c r="B45" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5912,25 +5894,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5943,10 +5925,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536440.4635266946</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R45" t="n">
-        <v>7209143.783224681</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6016,10 +5998,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111623840</v>
+        <v>111622736</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6028,35 +6010,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6064,13 +6041,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535969.6370432132</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R46" t="n">
-        <v>7209758.654224422</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6118,6 +6095,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6136,7 +6114,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111624004</v>
+        <v>111621975</v>
       </c>
       <c r="B47" t="n">
         <v>90087</v>
@@ -6179,13 +6157,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>535979.5667387084</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R47" t="n">
-        <v>7209602.686786775</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6225,6 +6203,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6236,6 +6219,21 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6252,10 +6250,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111624006</v>
+        <v>111622734</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6268,26 +6266,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6295,13 +6298,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535979.5667387084</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R48" t="n">
-        <v>7209602.686786775</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6349,7 +6352,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6368,7 +6370,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111625155</v>
+        <v>111622152</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6416,13 +6418,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536244.5255485425</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R49" t="n">
-        <v>7209442.18746885</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6472,6 +6474,21 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6488,10 +6505,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111624052</v>
+        <v>111625238</v>
       </c>
       <c r="B50" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6504,26 +6521,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6531,10 +6553,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535928.2260010642</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R50" t="n">
-        <v>7209575.417457776</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6585,7 +6607,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6604,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111621888</v>
+        <v>111624558</v>
       </c>
       <c r="B51" t="n">
-        <v>90087</v>
+        <v>89790</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6616,25 +6637,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3298</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Trådticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6647,13 +6663,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536416.0900422698</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R51" t="n">
-        <v>7209162.523791903</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6720,10 +6736,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623672</v>
+        <v>111623904</v>
       </c>
       <c r="B52" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6732,30 +6748,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6763,10 +6784,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535988.4578048707</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R52" t="n">
-        <v>7209708.122271948</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6817,7 +6838,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6836,10 +6856,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111624625</v>
+        <v>111621872</v>
       </c>
       <c r="B53" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6852,21 +6872,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6879,13 +6899,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536146.6289329219</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R53" t="n">
-        <v>7209377.11937314</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6925,11 +6945,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6941,6 +6956,26 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6957,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623828</v>
+        <v>111623511</v>
       </c>
       <c r="B54" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6969,30 +7004,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7000,10 +7040,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535969.6370432132</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R54" t="n">
-        <v>7209758.654224422</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7054,7 +7094,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7073,10 +7112,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111622229</v>
+        <v>111623026</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7085,35 +7124,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7121,13 +7155,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536040.4055433145</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R55" t="n">
-        <v>7209159.649405509</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7175,23 +7209,9 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7208,7 +7228,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111622996</v>
+        <v>111623126</v>
       </c>
       <c r="B56" t="n">
         <v>90087</v>
@@ -7251,10 +7271,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536109.6063802312</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R56" t="n">
-        <v>7209286.560724956</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S56" t="n">
         <v>50</v>
@@ -7324,10 +7344,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111622612</v>
+        <v>111622996</v>
       </c>
       <c r="B57" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7336,25 +7356,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7367,13 +7387,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>535976.2494590636</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R57" t="n">
-        <v>7209175.797223139</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7440,10 +7460,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111624238</v>
+        <v>111621888</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7452,35 +7472,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7488,13 +7503,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536021.4365124467</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R58" t="n">
-        <v>7209467.40269117</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7542,6 +7557,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7560,10 +7576,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111623503</v>
+        <v>111624006</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7576,31 +7592,26 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7608,10 +7619,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535856.860287422</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R59" t="n">
-        <v>7209593.170475948</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7662,6 +7673,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7680,10 +7692,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623511</v>
+        <v>111623417</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7692,35 +7704,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7728,10 +7735,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535899.6858320399</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R60" t="n">
-        <v>7209589.032964948</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7782,6 +7789,7 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7800,7 +7808,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111623556</v>
+        <v>111622312</v>
       </c>
       <c r="B61" t="n">
         <v>90087</v>
@@ -7843,13 +7851,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535929.7413597835</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R61" t="n">
-        <v>7209590.241238016</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7916,10 +7924,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111623076</v>
+        <v>111625227</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7932,31 +7940,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7964,13 +7967,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536023.4663215687</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R62" t="n">
-        <v>7209299.479105573</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S62" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8018,6 +8021,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8036,7 +8040,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111623380</v>
+        <v>111622557</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -8074,7 +8078,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8084,13 +8088,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535912.0367731415</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R63" t="n">
-        <v>7209513.038373807</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8156,7 +8160,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111621424</v>
+        <v>111623569</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8204,13 +8208,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536427.0683239623</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R64" t="n">
-        <v>7208922.764273487</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8260,21 +8264,6 @@
       </c>
       <c r="AG64" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ64" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
@@ -8291,7 +8280,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111623155</v>
+        <v>111622636</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8339,10 +8328,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535977.4727609204</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R65" t="n">
-        <v>7209320.07617898</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8411,7 +8400,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111623925</v>
+        <v>111621552</v>
       </c>
       <c r="B66" t="n">
         <v>56398</v>
@@ -8459,13 +8448,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>535975.1632773781</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R66" t="n">
-        <v>7209651.702600373</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8515,6 +8504,21 @@
       </c>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
@@ -8531,10 +8535,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111622583</v>
+        <v>111623740</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8543,35 +8547,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8579,13 +8578,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>536007.9265540047</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R67" t="n">
-        <v>7209183.371993401</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8627,17 +8626,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8656,10 +8651,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621741</v>
+        <v>111621391</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8672,26 +8667,31 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8699,10 +8699,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536601.4752199765</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R68" t="n">
-        <v>7209070.870306575</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8753,7 +8753,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8767,14 +8766,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL68" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9059,10 +9053,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621404</v>
+        <v>111621741</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9075,21 +9069,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9102,10 +9096,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536490.2040342408</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R71" t="n">
-        <v>7208921.420983357</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9159,6 +9153,26 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
@@ -9175,10 +9189,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621391</v>
+        <v>111621404</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9191,31 +9205,26 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9223,10 +9232,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536493.9251405013</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R72" t="n">
-        <v>7208859.691794363</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9277,23 +9286,9 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -1435,10 +1435,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623057</v>
+        <v>111624781</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1447,25 +1447,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536049.8462557254</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R8" t="n">
-        <v>7209289.644754019</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1524,6 +1524,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1551,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111623503</v>
+        <v>111623862</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,35 +1568,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535856.860287422</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R9" t="n">
-        <v>7209593.170475948</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1653,6 +1653,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1671,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111622993</v>
+        <v>111624238</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1719,13 +1720,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536109.6063802312</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R10" t="n">
-        <v>7209286.560724956</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1791,7 +1792,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111623493</v>
+        <v>111623737</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1829,7 +1830,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1839,10 +1840,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535838.0792552171</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R11" t="n">
-        <v>7209570.101763099</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1911,10 +1912,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111624781</v>
+        <v>111623057</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1923,25 +1924,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1954,13 +1955,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536163.4453901229</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R12" t="n">
-        <v>7209387.476444452</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2000,11 +2001,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2032,10 +2028,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623862</v>
+        <v>111623493</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2044,30 +2040,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2075,10 +2076,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535978.2032259003</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R13" t="n">
-        <v>7209715.612372425</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2129,7 +2130,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111624238</v>
+        <v>111623503</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536021.4365124467</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R14" t="n">
-        <v>7209467.40269117</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111623737</v>
+        <v>111622993</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2306,7 +2306,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2316,13 +2316,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535968.9484369244</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R15" t="n">
-        <v>7209745.533198988</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111621484</v>
+        <v>111623828</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2535,35 +2535,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2571,10 +2566,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536395.2396464556</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R17" t="n">
-        <v>7208927.45277346</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2625,23 +2620,9 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2658,7 +2639,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111621565</v>
+        <v>111624010</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2706,10 +2687,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536384.5165957341</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R18" t="n">
-        <v>7208973.017290085</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2762,21 +2743,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2793,7 +2759,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111625155</v>
+        <v>111621484</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2831,7 +2797,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2841,10 +2807,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536244.5255485425</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R19" t="n">
-        <v>7209442.18746885</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2897,6 +2863,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2913,10 +2894,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111623828</v>
+        <v>111621565</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2925,30 +2906,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2956,10 +2942,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>535969.6370432132</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R20" t="n">
-        <v>7209758.654224422</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -3010,9 +2996,23 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3029,7 +3029,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111624010</v>
+        <v>111625155</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>535979.5667387084</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R21" t="n">
-        <v>7209602.686786775</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111623840</v>
+        <v>111624625</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3641,31 +3641,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3673,10 +3668,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>535969.6370432132</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R26" t="n">
-        <v>7209758.654224422</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3721,12 +3716,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3745,10 +3746,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111624625</v>
+        <v>111623840</v>
       </c>
       <c r="B27" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3761,26 +3762,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3788,10 +3794,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536146.6289329219</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R27" t="n">
-        <v>7209377.11937314</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3836,18 +3842,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111624344</v>
+        <v>111622318</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4946,31 +4946,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4978,13 +4973,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536034.9019056049</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R37" t="n">
-        <v>7209439.645294238</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5032,6 +5027,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5050,10 +5046,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111622318</v>
+        <v>111624344</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5066,26 +5062,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5093,13 +5094,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536040.9507766268</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R38" t="n">
-        <v>7209184.617312368</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5147,7 +5148,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111621572</v>
+        <v>111624796</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5294,25 +5294,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5325,10 +5325,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536384.5165957341</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R40" t="n">
-        <v>7208973.017290085</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5373,11 +5373,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5387,21 +5382,6 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5418,10 +5398,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111624796</v>
+        <v>111623672</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>90087</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5430,25 +5410,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5461,10 +5441,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536163.4453901229</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R41" t="n">
-        <v>7209387.476444452</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5534,10 +5514,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111623672</v>
+        <v>111624052</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5546,25 +5526,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5577,10 +5557,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535988.4578048707</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R42" t="n">
-        <v>7209708.122271948</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5650,10 +5630,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111624052</v>
+        <v>111621800</v>
       </c>
       <c r="B43" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5662,25 +5642,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5693,13 +5673,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>535928.2260010642</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R43" t="n">
-        <v>7209575.417457776</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5766,7 +5746,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111621800</v>
+        <v>111621572</v>
       </c>
       <c r="B44" t="n">
         <v>90087</v>
@@ -5809,13 +5789,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536440.4635266946</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R44" t="n">
-        <v>7209143.783224681</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5855,6 +5835,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5866,6 +5851,21 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -7228,7 +7228,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111623126</v>
+        <v>111622996</v>
       </c>
       <c r="B56" t="n">
         <v>90087</v>
@@ -7271,10 +7271,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536023.4663215687</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R56" t="n">
-        <v>7209299.479105573</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S56" t="n">
         <v>50</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111622996</v>
+        <v>111623126</v>
       </c>
       <c r="B57" t="n">
         <v>90087</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536109.6063802312</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R57" t="n">
-        <v>7209286.560724956</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S57" t="n">
         <v>50</v>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111623076</v>
+        <v>111623672</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536023.4663215687</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R2" t="n">
-        <v>7209299.479105573</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623155</v>
+        <v>111623026</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,35 +808,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,13 +839,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535977.4727609204</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R3" t="n">
-        <v>7209320.07617898</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -902,6 +893,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -920,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111622229</v>
+        <v>111624004</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,35 +924,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -968,13 +955,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536040.4055433145</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R4" t="n">
-        <v>7209159.649405509</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1022,23 +1009,9 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1055,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111621424</v>
+        <v>111623001</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,31 +1044,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1103,13 +1071,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536427.0683239623</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R5" t="n">
-        <v>7208922.764273487</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1157,23 +1125,9 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1190,7 +1144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111625160</v>
+        <v>111625169</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1228,7 +1182,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1310,7 +1264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111622583</v>
+        <v>111623925</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1358,13 +1312,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536007.9265540047</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R7" t="n">
-        <v>7209183.371993401</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1404,11 +1358,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1435,10 +1384,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111624781</v>
+        <v>111622590</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1451,21 +1400,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1478,13 +1427,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536163.4453901229</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R8" t="n">
-        <v>7209387.476444452</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1524,11 +1473,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1556,7 +1500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111623862</v>
+        <v>111624564</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1599,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535978.2032259003</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R9" t="n">
-        <v>7209715.612372425</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1672,7 +1616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111624238</v>
+        <v>111622734</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1720,13 +1664,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536021.4365124467</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R10" t="n">
-        <v>7209467.40269117</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1792,7 +1736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111623737</v>
+        <v>111623493</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1830,7 +1774,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1840,10 +1784,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535968.9484369244</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R11" t="n">
-        <v>7209745.533198988</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1912,7 +1856,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623057</v>
+        <v>111623740</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1955,13 +1899,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536049.8462557254</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R12" t="n">
-        <v>7209289.644754019</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2028,10 +1972,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623493</v>
+        <v>111623887</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2040,35 +1984,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2076,10 +2015,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535838.0792552171</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R13" t="n">
-        <v>7209570.101763099</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2130,6 +2069,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2148,7 +2088,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111623503</v>
+        <v>111622636</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2196,13 +2136,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535856.860287422</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R14" t="n">
-        <v>7209593.170475948</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2388,7 +2328,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111622173</v>
+        <v>111622583</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2426,7 +2366,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2436,10 +2376,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536211.5596349295</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R16" t="n">
-        <v>7208983.18093912</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2484,6 +2424,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2492,21 +2437,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2523,10 +2453,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111623828</v>
+        <v>111622557</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2535,30 +2465,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2566,13 +2501,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>535969.6370432132</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R17" t="n">
-        <v>7209758.654224422</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2620,7 +2555,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2639,10 +2573,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111624010</v>
+        <v>111621872</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2655,31 +2589,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2687,13 +2616,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535979.5667387084</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R18" t="n">
-        <v>7209602.686786775</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2741,8 +2670,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2759,7 +2709,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111621484</v>
+        <v>111621424</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2807,13 +2757,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536395.2396464556</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R19" t="n">
-        <v>7208927.45277346</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2894,10 +2844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111621565</v>
+        <v>111621975</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2906,35 +2856,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2942,13 +2887,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536384.5165957341</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R20" t="n">
-        <v>7208973.017290085</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2990,12 +2935,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3029,7 +2980,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111625155</v>
+        <v>111623076</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3067,7 +3018,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -3077,13 +3028,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536244.5255485425</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R21" t="n">
-        <v>7209442.18746885</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3149,10 +3100,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111623539</v>
+        <v>111624625</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3165,31 +3116,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3197,10 +3143,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>535903.0276557686</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R22" t="n">
-        <v>7209592.880347125</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3245,12 +3191,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3269,7 +3221,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111623468</v>
+        <v>111623155</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3307,7 +3259,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3317,13 +3269,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>535866.1958485778</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R23" t="n">
-        <v>7209556.480484258</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3389,7 +3341,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111624004</v>
+        <v>111623417</v>
       </c>
       <c r="B24" t="n">
         <v>90087</v>
@@ -3432,10 +3384,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535979.5667387084</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R24" t="n">
-        <v>7209602.686786775</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3505,10 +3457,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111623925</v>
+        <v>111624006</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3521,31 +3473,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3553,10 +3500,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535975.1632773781</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R25" t="n">
-        <v>7209651.702600373</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3607,6 +3554,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3625,10 +3573,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111624625</v>
+        <v>111624238</v>
       </c>
       <c r="B26" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3641,26 +3589,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3668,10 +3621,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536146.6289329219</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R26" t="n">
-        <v>7209377.11937314</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3716,18 +3669,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3746,10 +3693,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623840</v>
+        <v>111623126</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3758,35 +3705,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3794,13 +3736,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>535969.6370432132</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R27" t="n">
-        <v>7209758.654224422</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3848,6 +3790,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3866,10 +3809,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111621985</v>
+        <v>111621800</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3878,25 +3821,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3909,10 +3852,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536396.9230770704</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R28" t="n">
-        <v>7209171.174238501</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3982,10 +3925,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111624450</v>
+        <v>111624558</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89790</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3998,31 +3941,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4030,10 +3963,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536057.8671864467</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R29" t="n">
-        <v>7209431.885401525</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4084,6 +4017,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4102,10 +4036,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111623380</v>
+        <v>111623057</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4114,35 +4048,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4150,13 +4079,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>535912.0367731415</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R30" t="n">
-        <v>7209513.038373807</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4204,6 +4133,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4222,10 +4152,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111623556</v>
+        <v>111624796</v>
       </c>
       <c r="B31" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4234,25 +4164,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4265,10 +4195,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535929.7413597835</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R31" t="n">
-        <v>7209590.241238016</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4338,7 +4268,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111622590</v>
+        <v>111625227</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4381,13 +4311,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536007.9265540047</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R32" t="n">
-        <v>7209183.371993401</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4454,7 +4384,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111624097</v>
+        <v>111623380</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4502,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>535928.2260010642</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R33" t="n">
-        <v>7209575.417457776</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4574,7 +4504,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111623592</v>
+        <v>111624097</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4622,10 +4552,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535951.6286454553</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R34" t="n">
-        <v>7209601.503558567</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4694,7 +4624,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111624564</v>
+        <v>111622736</v>
       </c>
       <c r="B35" t="n">
         <v>90087</v>
@@ -4737,13 +4667,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536083.1087774199</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R35" t="n">
-        <v>7209411.039029445</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4810,7 +4740,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111623697</v>
+        <v>111621484</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4848,7 +4778,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4858,10 +4788,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>535988.4578048707</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R36" t="n">
-        <v>7209708.122271948</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4914,6 +4844,21 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4930,10 +4875,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111622318</v>
+        <v>111625148</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4946,26 +4891,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4973,13 +4923,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536040.9507766268</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R37" t="n">
-        <v>7209184.617312368</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5027,7 +4977,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5046,7 +4995,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111624344</v>
+        <v>111624010</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -5094,10 +5043,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536034.9019056049</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R38" t="n">
-        <v>7209439.645294238</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5166,10 +5115,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623001</v>
+        <v>111623592</v>
       </c>
       <c r="B39" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5182,26 +5131,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5209,13 +5163,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536109.6063802312</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R39" t="n">
-        <v>7209286.560724956</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5263,7 +5217,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5282,10 +5235,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111624796</v>
+        <v>111623556</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5294,25 +5247,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5325,10 +5278,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536163.4453901229</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R40" t="n">
-        <v>7209387.476444452</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5398,10 +5351,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111623672</v>
+        <v>111622229</v>
       </c>
       <c r="B41" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5410,30 +5363,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5441,13 +5399,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535988.4578048707</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R41" t="n">
-        <v>7209708.122271948</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5495,9 +5453,23 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5514,10 +5486,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111624052</v>
+        <v>111622312</v>
       </c>
       <c r="B42" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5526,25 +5498,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5557,13 +5529,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535928.2260010642</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R42" t="n">
-        <v>7209575.417457776</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5630,10 +5602,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111621800</v>
+        <v>111622318</v>
       </c>
       <c r="B43" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5642,25 +5614,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5673,10 +5645,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536440.4635266946</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R43" t="n">
-        <v>7209143.783224681</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5746,10 +5718,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111621572</v>
+        <v>111624781</v>
       </c>
       <c r="B44" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5758,25 +5730,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5789,10 +5761,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536384.5165957341</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R44" t="n">
-        <v>7208973.017290085</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5839,7 +5811,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Vid stambasen, stående gran</t>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5851,21 +5823,6 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5882,10 +5839,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111622612</v>
+        <v>111623737</v>
       </c>
       <c r="B45" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5898,26 +5855,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5925,13 +5887,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535976.2494590636</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R45" t="n">
-        <v>7209175.797223139</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5979,7 +5941,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5998,10 +5959,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111622736</v>
+        <v>111623539</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6010,30 +5971,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6041,13 +6007,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535953.8130829642</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R46" t="n">
-        <v>7209209.795134133</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6095,7 +6061,6 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6114,10 +6079,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111621975</v>
+        <v>111622152</v>
       </c>
       <c r="B47" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6126,30 +6091,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6157,10 +6127,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536396.9230770704</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R47" t="n">
-        <v>7209171.174238501</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6205,18 +6175,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6250,7 +6214,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111622734</v>
+        <v>111623840</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6298,13 +6262,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535953.8130829642</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R48" t="n">
-        <v>7209209.795134133</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6370,10 +6334,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111622152</v>
+        <v>111621985</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6386,31 +6350,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6418,10 +6377,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536330.5895068019</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R49" t="n">
-        <v>7209122.557094801</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6472,23 +6431,9 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6505,7 +6450,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111625238</v>
+        <v>111623904</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6543,7 +6488,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -6553,10 +6498,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536371.5755853961</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R50" t="n">
-        <v>7209512.6894844</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6625,10 +6570,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111624558</v>
+        <v>111623828</v>
       </c>
       <c r="B51" t="n">
-        <v>89790</v>
+        <v>90087</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6637,20 +6582,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6040186</v>
+        <v>3298</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6663,10 +6613,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536083.1087774199</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R51" t="n">
-        <v>7209411.039029445</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6736,10 +6686,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623904</v>
+        <v>111624052</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6752,31 +6702,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6784,10 +6729,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535966.8369070068</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R52" t="n">
-        <v>7209674.867268311</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6838,6 +6783,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6856,10 +6802,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111621872</v>
+        <v>111623511</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6872,26 +6818,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6899,13 +6850,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536440.3290520471</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R53" t="n">
-        <v>7209154.781605188</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6953,29 +6904,8 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL53" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6992,10 +6922,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623511</v>
+        <v>111622612</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7008,31 +6938,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7040,13 +6965,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535899.6858320399</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R54" t="n">
-        <v>7209589.032964948</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7094,6 +7019,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7112,7 +7038,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111623026</v>
+        <v>111621888</v>
       </c>
       <c r="B55" t="n">
         <v>90087</v>
@@ -7155,13 +7081,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536102.963546137</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R55" t="n">
-        <v>7209275.480738332</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S55" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7228,10 +7154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111622996</v>
+        <v>111622173</v>
       </c>
       <c r="B56" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7240,30 +7166,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7271,13 +7202,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536109.6063802312</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R56" t="n">
-        <v>7209286.560724956</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7325,9 +7256,23 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -7344,10 +7289,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623126</v>
+        <v>111625238</v>
       </c>
       <c r="B57" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7356,30 +7301,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7387,13 +7337,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536023.4663215687</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R57" t="n">
-        <v>7209299.479105573</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7441,7 +7391,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7460,10 +7409,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111621888</v>
+        <v>111623697</v>
       </c>
       <c r="B58" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7472,30 +7421,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7503,13 +7457,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536416.0900422698</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R58" t="n">
-        <v>7209162.523791903</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7557,7 +7511,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7576,10 +7529,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111624006</v>
+        <v>111623569</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7592,26 +7545,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7619,10 +7577,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535979.5667387084</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R59" t="n">
-        <v>7209602.686786775</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7673,7 +7631,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7692,10 +7649,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623417</v>
+        <v>111623503</v>
       </c>
       <c r="B60" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7704,30 +7661,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7735,10 +7697,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535866.1958485778</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R60" t="n">
-        <v>7209556.480484258</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7789,7 +7751,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7808,7 +7769,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111622312</v>
+        <v>111622996</v>
       </c>
       <c r="B61" t="n">
         <v>90087</v>
@@ -7851,13 +7812,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>536040.9507766268</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R61" t="n">
-        <v>7209184.617312368</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7924,10 +7885,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111625227</v>
+        <v>111621552</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7940,26 +7901,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7967,13 +7933,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536368.8900330348</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R62" t="n">
-        <v>7209489.813207326</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8021,9 +7987,23 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8040,10 +8020,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111622557</v>
+        <v>111621572</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8052,35 +8032,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8088,13 +8063,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536009.1715554149</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R63" t="n">
-        <v>7209185.502391796</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8136,14 +8111,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8160,7 +8156,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623569</v>
+        <v>111624450</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8198,7 +8194,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -8208,10 +8204,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535929.7413597835</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R64" t="n">
-        <v>7209590.241238016</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8280,7 +8276,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111622636</v>
+        <v>111623468</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8318,7 +8314,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -8328,13 +8324,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535993.6234792916</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R65" t="n">
-        <v>7209210.275665025</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8400,7 +8396,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111621552</v>
+        <v>111621565</v>
       </c>
       <c r="B66" t="n">
         <v>56398</v>
@@ -8438,7 +8434,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -8448,13 +8444,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536390.751010091</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R66" t="n">
-        <v>7208948.130241925</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8535,10 +8531,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111623740</v>
+        <v>111624344</v>
       </c>
       <c r="B67" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8547,30 +8543,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8578,10 +8579,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535968.9484369244</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R67" t="n">
-        <v>7209745.533198988</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8632,7 +8633,6 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621391</v>
+        <v>111621404</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8667,31 +8667,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8699,10 +8694,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536493.9251405013</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R68" t="n">
-        <v>7208859.691794363</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8753,23 +8748,9 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8786,7 +8767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621709</v>
+        <v>111621741</v>
       </c>
       <c r="B69" t="n">
         <v>89423</v>
@@ -8829,10 +8810,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536588.4287280297</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R69" t="n">
-        <v>7209063.940678015</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9053,10 +9034,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621741</v>
+        <v>111621391</v>
       </c>
       <c r="B71" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9069,26 +9050,31 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9096,10 +9082,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536601.4752199765</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R71" t="n">
-        <v>7209070.870306575</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9150,7 +9136,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9164,14 +9149,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9189,10 +9169,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621404</v>
+        <v>111621709</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9205,21 +9185,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9232,10 +9212,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536490.2040342408</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R72" t="n">
-        <v>7208921.420983357</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9289,6 +9269,26 @@
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111623672</v>
+        <v>111622557</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>535988.4578048707</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R2" t="n">
-        <v>7209708.122271948</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623026</v>
+        <v>111623862</v>
       </c>
       <c r="B3" t="n">
         <v>90087</v>
@@ -839,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536102.963546137</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R3" t="n">
-        <v>7209275.480738332</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -912,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111624004</v>
+        <v>111622993</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,30 +928,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -955,13 +964,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535979.5667387084</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R4" t="n">
-        <v>7209602.686786775</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1009,7 +1018,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1028,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111623001</v>
+        <v>111624344</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,26 +1052,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1071,13 +1084,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536109.6063802312</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R5" t="n">
-        <v>7209286.560724956</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1125,7 +1138,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1144,7 +1156,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111625169</v>
+        <v>111622734</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1182,7 +1194,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1192,13 +1204,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536263.4947354996</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R6" t="n">
-        <v>7209449.609840255</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1264,10 +1276,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111623925</v>
+        <v>111621985</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,31 +1292,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1312,13 +1319,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>535975.1632773781</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R7" t="n">
-        <v>7209651.702600373</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1366,6 +1373,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1384,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111622590</v>
+        <v>111623076</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,26 +1408,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1427,13 +1440,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536007.9265540047</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R8" t="n">
-        <v>7209183.371993401</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1481,7 +1494,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1500,7 +1512,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111624564</v>
+        <v>111622312</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1543,13 +1555,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536083.1087774199</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R9" t="n">
-        <v>7209411.039029445</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1616,7 +1628,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111622734</v>
+        <v>111622583</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1654,7 +1666,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1664,10 +1676,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>535953.8130829642</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R10" t="n">
-        <v>7209209.795134133</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,6 +1722,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1736,7 +1753,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111623493</v>
+        <v>111624450</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1784,10 +1801,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535838.0792552171</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R11" t="n">
-        <v>7209570.101763099</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1856,10 +1873,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623740</v>
+        <v>111621484</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,30 +1885,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1899,10 +1921,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535968.9484369244</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R12" t="n">
-        <v>7209745.533198988</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1953,9 +1975,23 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1972,7 +2008,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623887</v>
+        <v>111623126</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2015,13 +2051,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535978.2032259003</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R13" t="n">
-        <v>7209715.612372425</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2088,10 +2124,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111622636</v>
+        <v>111622612</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,31 +2140,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2136,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535993.6234792916</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R14" t="n">
-        <v>7209210.275665025</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,6 +2221,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2208,7 +2240,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111622993</v>
+        <v>111622636</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2256,13 +2288,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536109.6063802312</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R15" t="n">
-        <v>7209286.560724956</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2328,10 +2360,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111622583</v>
+        <v>111621872</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2344,31 +2376,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2376,10 +2403,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536007.9265540047</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R16" t="n">
-        <v>7209183.371993401</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2424,19 +2451,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2453,7 +2496,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111622557</v>
+        <v>111623840</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2491,7 +2534,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2501,13 +2544,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536009.1715554149</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R17" t="n">
-        <v>7209185.502391796</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2573,10 +2616,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111621872</v>
+        <v>111624010</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2589,26 +2632,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2616,13 +2664,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536440.3290520471</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R18" t="n">
-        <v>7209154.781605188</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2670,29 +2718,8 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2709,7 +2736,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111621424</v>
+        <v>111623468</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2757,13 +2784,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536427.0683239623</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R19" t="n">
-        <v>7208922.764273487</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2813,21 +2840,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2844,10 +2856,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111621975</v>
+        <v>111624006</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2856,25 +2868,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2887,13 +2899,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536396.9230770704</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R20" t="n">
-        <v>7209171.174238501</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2933,11 +2945,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2949,21 +2956,6 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2980,10 +2972,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111623076</v>
+        <v>111621800</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2992,35 +2984,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3028,13 +3015,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536023.4663215687</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R21" t="n">
-        <v>7209299.479105573</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3082,6 +3069,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3100,10 +3088,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111624625</v>
+        <v>111625148</v>
       </c>
       <c r="B22" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3116,26 +3104,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3143,10 +3136,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536146.6289329219</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R22" t="n">
-        <v>7209377.11937314</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3191,18 +3184,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3221,7 +3208,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111623155</v>
+        <v>111623697</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3269,13 +3256,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>535977.4727609204</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R23" t="n">
-        <v>7209320.07617898</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3341,10 +3328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111623417</v>
+        <v>111625174</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3353,30 +3340,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3384,10 +3376,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535866.1958485778</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R24" t="n">
-        <v>7209556.480484258</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3432,13 +3424,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack på 2 granar</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3457,10 +3453,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111624006</v>
+        <v>111623740</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3469,25 +3465,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3500,10 +3496,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535979.5667387084</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R25" t="n">
-        <v>7209602.686786775</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3573,10 +3569,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111624238</v>
+        <v>111624564</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3585,35 +3581,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3621,10 +3612,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536021.4365124467</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R26" t="n">
-        <v>7209467.40269117</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3675,6 +3666,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3693,7 +3685,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623126</v>
+        <v>111623057</v>
       </c>
       <c r="B27" t="n">
         <v>90087</v>
@@ -3736,10 +3728,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536023.4663215687</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R27" t="n">
-        <v>7209299.479105573</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3809,10 +3801,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111621800</v>
+        <v>111623380</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3821,30 +3813,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3852,13 +3849,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536440.4635266946</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R28" t="n">
-        <v>7209143.783224681</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3906,7 +3903,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3925,10 +3921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111624558</v>
+        <v>111622996</v>
       </c>
       <c r="B29" t="n">
-        <v>89790</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3937,20 +3933,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6040186</v>
+        <v>3298</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3963,13 +3964,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536083.1087774199</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R29" t="n">
-        <v>7209411.039029445</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4036,7 +4037,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111623057</v>
+        <v>111621975</v>
       </c>
       <c r="B30" t="n">
         <v>90087</v>
@@ -4079,13 +4080,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536049.8462557254</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R30" t="n">
-        <v>7209289.644754019</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4125,6 +4126,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4136,6 +4142,21 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4152,10 +4173,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111624796</v>
+        <v>111623672</v>
       </c>
       <c r="B31" t="n">
-        <v>89686</v>
+        <v>90087</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4164,25 +4185,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4195,10 +4216,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536163.4453901229</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R31" t="n">
-        <v>7209387.476444452</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4268,10 +4289,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111625227</v>
+        <v>111624052</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4284,21 +4305,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4311,10 +4332,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536368.8900330348</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R32" t="n">
-        <v>7209489.813207326</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4384,10 +4405,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111623380</v>
+        <v>111622590</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4400,31 +4421,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4432,13 +4448,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>535912.0367731415</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R33" t="n">
-        <v>7209513.038373807</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4486,6 +4502,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4504,7 +4521,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111624097</v>
+        <v>111621552</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4542,7 +4559,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4552,13 +4569,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535928.2260010642</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R34" t="n">
-        <v>7209575.417457776</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4608,6 +4625,21 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4624,10 +4656,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111622736</v>
+        <v>111622229</v>
       </c>
       <c r="B35" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4636,30 +4668,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4667,10 +4704,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>535953.8130829642</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R35" t="n">
-        <v>7209209.795134133</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4721,9 +4758,23 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4740,10 +4791,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111621484</v>
+        <v>111624781</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4756,31 +4807,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4788,10 +4834,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536395.2396464556</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R36" t="n">
-        <v>7208927.45277346</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4836,29 +4882,20 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4875,7 +4912,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111625148</v>
+        <v>111623904</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4913,7 +4950,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -4923,10 +4960,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536244.5255485425</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R37" t="n">
-        <v>7209442.18746885</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4995,7 +5032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111624010</v>
+        <v>111623592</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -5043,10 +5080,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535979.5667387084</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R38" t="n">
-        <v>7209602.686786775</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5115,7 +5152,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623592</v>
+        <v>111623539</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5163,10 +5200,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>535951.6286454553</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R39" t="n">
-        <v>7209601.503558567</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5235,10 +5272,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111623556</v>
+        <v>111624625</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5247,25 +5284,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5278,10 +5315,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535929.7413597835</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R40" t="n">
-        <v>7209590.241238016</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5324,6 +5361,11 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5351,7 +5393,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111622229</v>
+        <v>111623569</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5399,13 +5441,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536040.4055433145</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R41" t="n">
-        <v>7209159.649405509</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5455,21 +5497,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5486,10 +5513,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111622312</v>
+        <v>111625227</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5498,25 +5525,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5529,13 +5556,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536040.9507766268</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R42" t="n">
-        <v>7209184.617312368</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5602,10 +5629,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111622318</v>
+        <v>111623925</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5618,26 +5645,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5645,13 +5677,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536040.9507766268</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R43" t="n">
-        <v>7209184.617312368</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5699,7 +5731,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5718,10 +5749,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111624781</v>
+        <v>111623417</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5730,25 +5761,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5761,10 +5792,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536163.4453901229</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R44" t="n">
-        <v>7209387.476444452</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5807,11 +5838,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5839,10 +5865,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111623737</v>
+        <v>111623828</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5851,35 +5877,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5887,10 +5908,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535968.9484369244</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R45" t="n">
-        <v>7209745.533198988</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5941,6 +5962,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5959,7 +5981,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111623539</v>
+        <v>111623511</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -6007,10 +6029,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535903.0276557686</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R46" t="n">
-        <v>7209592.880347125</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6079,10 +6101,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111622152</v>
+        <v>111624796</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6095,31 +6117,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6127,13 +6144,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536330.5895068019</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R47" t="n">
-        <v>7209122.557094801</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6181,23 +6198,9 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6214,7 +6217,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111623840</v>
+        <v>111623503</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6262,10 +6265,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535969.6370432132</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R48" t="n">
-        <v>7209758.654224422</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6334,10 +6337,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111621985</v>
+        <v>111621572</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6346,25 +6349,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6377,13 +6380,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536396.9230770704</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R49" t="n">
-        <v>7209171.174238501</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6423,6 +6426,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6434,6 +6442,21 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6450,10 +6473,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111623904</v>
+        <v>111622318</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6466,31 +6489,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6498,13 +6516,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535966.8369070068</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R50" t="n">
-        <v>7209674.867268311</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6552,6 +6570,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6570,10 +6589,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111623828</v>
+        <v>111621424</v>
       </c>
       <c r="B51" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6582,30 +6601,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6613,13 +6637,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535969.6370432132</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R51" t="n">
-        <v>7209758.654224422</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6667,9 +6691,23 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6686,10 +6724,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111624052</v>
+        <v>111623493</v>
       </c>
       <c r="B52" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6702,26 +6740,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6729,10 +6772,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535928.2260010642</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R52" t="n">
-        <v>7209575.417457776</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6783,7 +6826,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6802,10 +6844,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111623511</v>
+        <v>111624004</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6814,35 +6856,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6850,10 +6887,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535899.6858320399</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R53" t="n">
-        <v>7209589.032964948</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6904,6 +6941,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6922,10 +6960,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111622612</v>
+        <v>111624558</v>
       </c>
       <c r="B54" t="n">
-        <v>85715</v>
+        <v>89790</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6938,21 +6976,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>510</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Doftskinn</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6965,13 +6998,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535976.2494590636</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R54" t="n">
-        <v>7209175.797223139</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7038,10 +7071,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111621888</v>
+        <v>111622152</v>
       </c>
       <c r="B55" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7050,30 +7083,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7081,10 +7119,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536416.0900422698</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R55" t="n">
-        <v>7209162.523791903</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7135,9 +7173,23 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7154,7 +7206,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111622173</v>
+        <v>111621565</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7202,13 +7254,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536211.5596349295</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R56" t="n">
-        <v>7208983.18093912</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7289,7 +7341,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111625238</v>
+        <v>111623737</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7327,7 +7379,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7337,10 +7389,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536371.5755853961</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R57" t="n">
-        <v>7209512.6894844</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7409,10 +7461,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111623697</v>
+        <v>111623026</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7421,35 +7473,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7457,13 +7504,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>535988.4578048707</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R58" t="n">
-        <v>7209708.122271948</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7511,6 +7558,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7529,7 +7577,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111623569</v>
+        <v>111624238</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7567,7 +7615,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -7577,10 +7625,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535929.7413597835</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R59" t="n">
-        <v>7209590.241238016</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7649,10 +7697,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623503</v>
+        <v>111621888</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7661,35 +7709,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7697,13 +7740,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535856.860287422</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R60" t="n">
-        <v>7209593.170475948</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7751,6 +7794,7 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7769,10 +7813,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111622996</v>
+        <v>111623155</v>
       </c>
       <c r="B61" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7781,30 +7825,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7812,13 +7861,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>536109.6063802312</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R61" t="n">
-        <v>7209286.560724956</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S61" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7866,7 +7915,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7885,7 +7933,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111621552</v>
+        <v>111622173</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7923,7 +7971,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -7933,10 +7981,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536390.751010091</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R62" t="n">
-        <v>7208948.130241925</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8020,10 +8068,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111621572</v>
+        <v>111625238</v>
       </c>
       <c r="B63" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8032,30 +8080,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8063,10 +8116,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536384.5165957341</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R63" t="n">
-        <v>7208973.017290085</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8111,35 +8164,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8156,10 +8188,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111624450</v>
+        <v>111623001</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8172,31 +8204,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8204,13 +8231,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536057.8671864467</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R64" t="n">
-        <v>7209431.885401525</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8258,6 +8285,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8276,10 +8304,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111623468</v>
+        <v>111622736</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8288,35 +8316,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8324,13 +8347,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535866.1958485778</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R65" t="n">
-        <v>7209556.480484258</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8378,6 +8401,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8396,10 +8420,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111621565</v>
+        <v>111623556</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8408,35 +8432,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8444,10 +8463,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536384.5165957341</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R66" t="n">
-        <v>7208973.017290085</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8498,23 +8517,9 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
@@ -8531,7 +8536,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111624344</v>
+        <v>111624097</v>
       </c>
       <c r="B67" t="n">
         <v>56398</v>
@@ -8579,10 +8584,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>536034.9019056049</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R67" t="n">
-        <v>7209439.645294238</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8651,10 +8656,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621404</v>
+        <v>111621741</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8667,21 +8672,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8694,10 +8699,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536490.2040342408</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R68" t="n">
-        <v>7208921.420983357</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8751,6 +8756,26 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8767,10 +8792,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621741</v>
+        <v>111621404</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8783,21 +8808,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8810,10 +8835,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536601.4752199765</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R69" t="n">
-        <v>7209070.870306575</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8867,26 +8892,6 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8903,10 +8908,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621754</v>
+        <v>111621709</v>
       </c>
       <c r="B70" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8915,25 +8920,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8946,10 +8951,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536493.437552894</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R70" t="n">
-        <v>7209072.507141155</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9014,9 +9019,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9034,10 +9044,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621391</v>
+        <v>111621754</v>
       </c>
       <c r="B71" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9046,35 +9056,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9082,10 +9087,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536493.9251405013</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R71" t="n">
-        <v>7208859.691794363</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9136,6 +9141,7 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9169,10 +9175,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621709</v>
+        <v>111621391</v>
       </c>
       <c r="B72" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9185,26 +9191,31 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9212,10 +9223,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536588.4287280297</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R72" t="n">
-        <v>7209063.940678015</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9266,7 +9277,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9280,14 +9290,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111622557</v>
+        <v>111621565</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -718,7 +718,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536009.1715554149</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R2" t="n">
-        <v>7209185.502391796</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -784,6 +784,21 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -800,7 +815,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623862</v>
+        <v>111623057</v>
       </c>
       <c r="B3" t="n">
         <v>90087</v>
@@ -843,13 +858,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535978.2032259003</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R3" t="n">
-        <v>7209715.612372425</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -916,7 +931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111622993</v>
+        <v>111625160</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -964,13 +979,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536109.6063802312</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R4" t="n">
-        <v>7209286.560724956</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1036,7 +1051,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111624344</v>
+        <v>111623925</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1074,7 +1089,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1084,10 +1099,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536034.9019056049</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R5" t="n">
-        <v>7209439.645294238</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1156,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111622734</v>
+        <v>111623828</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,35 +1183,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,13 +1214,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535953.8130829642</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R6" t="n">
-        <v>7209209.795134133</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1258,6 +1268,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1276,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111621985</v>
+        <v>111623503</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,26 +1303,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1319,13 +1335,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536396.9230770704</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R7" t="n">
-        <v>7209171.174238501</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1373,7 +1389,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1392,10 +1407,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623076</v>
+        <v>111622312</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,35 +1419,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1440,13 +1450,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536023.4663215687</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R8" t="n">
-        <v>7209299.479105573</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1494,6 +1504,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1512,7 +1523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111622312</v>
+        <v>111622996</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1555,13 +1566,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536040.9507766268</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R9" t="n">
-        <v>7209184.617312368</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1628,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111622583</v>
+        <v>111621800</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,35 +1651,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1676,10 +1682,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536007.9265540047</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R10" t="n">
-        <v>7209183.371993401</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,17 +1730,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1753,7 +1755,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111624450</v>
+        <v>111622583</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1791,7 +1793,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1801,13 +1803,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536057.8671864467</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R11" t="n">
-        <v>7209431.885401525</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1847,6 +1849,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1873,7 +1880,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111621484</v>
+        <v>111623076</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1921,13 +1928,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536395.2396464556</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R12" t="n">
-        <v>7208927.45277346</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1977,21 +1984,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2008,10 +2000,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623126</v>
+        <v>111623468</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2020,30 +2012,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2051,13 +2048,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536023.4663215687</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R13" t="n">
-        <v>7209299.479105573</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2105,7 +2102,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2124,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111622612</v>
+        <v>111624564</v>
       </c>
       <c r="B14" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2136,25 +2132,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2167,13 +2163,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535976.2494590636</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R14" t="n">
-        <v>7209175.797223139</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2240,7 +2236,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111622636</v>
+        <v>111623840</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2288,13 +2284,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535993.6234792916</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R15" t="n">
-        <v>7209210.275665025</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2360,10 +2356,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111621872</v>
+        <v>111624004</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2372,25 +2368,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2403,13 +2399,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536440.3290520471</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R16" t="n">
-        <v>7209154.781605188</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2460,26 +2456,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2496,7 +2472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111623840</v>
+        <v>111625238</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2544,10 +2520,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>535969.6370432132</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R17" t="n">
-        <v>7209758.654224422</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2616,10 +2592,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111624010</v>
+        <v>111623026</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2628,35 +2604,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2664,13 +2635,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535979.5667387084</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R18" t="n">
-        <v>7209602.686786775</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2718,6 +2689,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2736,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111623468</v>
+        <v>111621552</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2784,13 +2756,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>535866.1958485778</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R19" t="n">
-        <v>7209556.480484258</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2840,6 +2812,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2856,10 +2843,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111624006</v>
+        <v>111624238</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2872,26 +2859,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2899,10 +2891,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>535979.5667387084</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R20" t="n">
-        <v>7209602.686786775</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2953,7 +2945,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2972,10 +2963,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111621800</v>
+        <v>111623539</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2984,30 +2975,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3015,13 +3011,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536440.4635266946</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R21" t="n">
-        <v>7209143.783224681</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3069,7 +3065,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3088,7 +3083,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111625148</v>
+        <v>111621424</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3126,7 +3121,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3136,13 +3131,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536244.5255485425</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R22" t="n">
-        <v>7209442.18746885</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3192,6 +3187,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3208,10 +3218,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111623697</v>
+        <v>111622590</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3224,31 +3234,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3256,13 +3261,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>535988.4578048707</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R23" t="n">
-        <v>7209708.122271948</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3310,6 +3315,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111625174</v>
+        <v>111625148</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3376,10 +3382,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536263.4947354996</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R24" t="n">
-        <v>7209449.609840255</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3422,11 +3428,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack på 2 granar</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3453,10 +3454,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111623740</v>
+        <v>111624052</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3465,25 +3466,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3496,10 +3497,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535968.9484369244</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R25" t="n">
-        <v>7209745.533198988</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3569,10 +3570,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111624564</v>
+        <v>111624796</v>
       </c>
       <c r="B26" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3581,25 +3582,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3612,10 +3613,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536083.1087774199</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R26" t="n">
-        <v>7209411.039029445</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3685,7 +3686,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623057</v>
+        <v>111621572</v>
       </c>
       <c r="B27" t="n">
         <v>90087</v>
@@ -3728,13 +3729,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536049.8462557254</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R27" t="n">
-        <v>7209289.644754019</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3774,6 +3775,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3785,6 +3791,21 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3801,7 +3822,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111623380</v>
+        <v>111622229</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3839,7 +3860,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3849,13 +3870,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>535912.0367731415</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R28" t="n">
-        <v>7209513.038373807</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3905,6 +3926,21 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3921,10 +3957,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111622996</v>
+        <v>111621985</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3933,25 +3969,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3964,13 +4000,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536109.6063802312</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R29" t="n">
-        <v>7209286.560724956</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4037,10 +4073,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111621975</v>
+        <v>111623380</v>
       </c>
       <c r="B30" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4049,30 +4085,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4080,13 +4121,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536396.9230770704</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R30" t="n">
-        <v>7209171.174238501</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4128,35 +4169,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4173,10 +4193,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111623672</v>
+        <v>111624010</v>
       </c>
       <c r="B31" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4185,30 +4205,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4216,10 +4241,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535988.4578048707</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R31" t="n">
-        <v>7209708.122271948</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4270,7 +4295,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4289,7 +4313,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111624052</v>
+        <v>111624006</v>
       </c>
       <c r="B32" t="n">
         <v>89423</v>
@@ -4332,10 +4356,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>535928.2260010642</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R32" t="n">
-        <v>7209575.417457776</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4405,10 +4429,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111622590</v>
+        <v>111623740</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4417,25 +4441,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4448,13 +4472,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536007.9265540047</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R33" t="n">
-        <v>7209183.371993401</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4521,7 +4545,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111621552</v>
+        <v>111623569</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4569,13 +4593,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>536390.751010091</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R34" t="n">
-        <v>7208948.130241925</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4625,21 +4649,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4656,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111622229</v>
+        <v>111624625</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4672,31 +4681,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4704,13 +4708,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536040.4055433145</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R35" t="n">
-        <v>7209159.649405509</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4752,29 +4756,20 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4791,10 +4786,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111624781</v>
+        <v>111621975</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4803,25 +4798,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4834,13 +4829,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536163.4453901229</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R36" t="n">
-        <v>7209387.476444452</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4896,6 +4891,21 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4912,7 +4922,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111623904</v>
+        <v>111622152</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4950,7 +4960,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -4960,13 +4970,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>535966.8369070068</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R37" t="n">
-        <v>7209674.867268311</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5016,6 +5026,21 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -5032,10 +5057,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111623592</v>
+        <v>111623672</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5044,35 +5069,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5080,10 +5100,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535951.6286454553</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R38" t="n">
-        <v>7209601.503558567</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5134,6 +5154,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5152,7 +5173,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623539</v>
+        <v>111623592</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5200,10 +5221,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>535903.0276557686</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R39" t="n">
-        <v>7209592.880347125</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5272,10 +5293,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111624625</v>
+        <v>111622173</v>
       </c>
       <c r="B40" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5288,26 +5309,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5315,13 +5341,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536146.6289329219</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R40" t="n">
-        <v>7209377.11937314</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5363,20 +5389,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5393,10 +5428,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111623569</v>
+        <v>111622612</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5409,31 +5444,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5441,13 +5471,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535929.7413597835</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R41" t="n">
-        <v>7209590.241238016</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5495,6 +5525,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5513,7 +5544,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111625227</v>
+        <v>111621872</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5556,13 +5587,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536368.8900330348</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R42" t="n">
-        <v>7209489.813207326</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5613,6 +5644,26 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5629,10 +5680,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111623925</v>
+        <v>111623862</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5641,35 +5692,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5677,10 +5723,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>535975.1632773781</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R43" t="n">
-        <v>7209651.702600373</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5731,6 +5777,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5749,10 +5796,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623417</v>
+        <v>111623904</v>
       </c>
       <c r="B44" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5761,30 +5808,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5792,10 +5844,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535866.1958485778</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R44" t="n">
-        <v>7209556.480484258</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5846,7 +5898,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5865,10 +5916,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111623828</v>
+        <v>111622318</v>
       </c>
       <c r="B45" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5877,25 +5928,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5908,13 +5959,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535969.6370432132</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R45" t="n">
-        <v>7209758.654224422</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5981,10 +6032,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111623511</v>
+        <v>111621888</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5993,35 +6044,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6029,13 +6075,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535899.6858320399</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R46" t="n">
-        <v>7209589.032964948</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6083,6 +6129,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6101,10 +6148,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111624796</v>
+        <v>111624450</v>
       </c>
       <c r="B47" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6117,26 +6164,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6144,10 +6196,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536163.4453901229</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R47" t="n">
-        <v>7209387.476444452</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6198,7 +6250,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6217,10 +6268,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111623503</v>
+        <v>111624558</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89790</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6233,31 +6284,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6265,10 +6306,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535856.860287422</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R48" t="n">
-        <v>7209593.170475948</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6319,6 +6360,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6337,10 +6379,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111621572</v>
+        <v>111625227</v>
       </c>
       <c r="B49" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6349,25 +6391,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6380,10 +6422,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536384.5165957341</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R49" t="n">
-        <v>7208973.017290085</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6428,11 +6470,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -6442,21 +6479,6 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6473,10 +6495,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111622318</v>
+        <v>111623737</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6489,26 +6511,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6516,13 +6543,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536040.9507766268</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R50" t="n">
-        <v>7209184.617312368</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6570,7 +6597,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6589,10 +6615,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111621424</v>
+        <v>111623556</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6601,35 +6627,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6637,13 +6658,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536427.0683239623</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R51" t="n">
-        <v>7208922.764273487</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6691,23 +6712,9 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6724,7 +6731,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623493</v>
+        <v>111623000</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6762,7 +6769,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -6772,13 +6779,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535838.0792552171</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R52" t="n">
-        <v>7209570.101763099</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6844,10 +6851,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111624004</v>
+        <v>111622636</v>
       </c>
       <c r="B53" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6856,30 +6863,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6887,13 +6899,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535979.5667387084</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R53" t="n">
-        <v>7209602.686786775</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6941,7 +6953,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6960,10 +6971,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111624558</v>
+        <v>111624781</v>
       </c>
       <c r="B54" t="n">
-        <v>89790</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6976,16 +6987,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6040186</v>
+        <v>1202</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6998,10 +7014,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536083.1087774199</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R54" t="n">
-        <v>7209411.039029445</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7044,6 +7060,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7071,7 +7092,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111622152</v>
+        <v>111622734</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7119,10 +7140,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536330.5895068019</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R55" t="n">
-        <v>7209122.557094801</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7175,21 +7196,6 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -7206,7 +7212,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111621565</v>
+        <v>111621484</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7244,7 +7250,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -7254,10 +7260,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536384.5165957341</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R56" t="n">
-        <v>7208973.017290085</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7341,10 +7347,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623737</v>
+        <v>111623126</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7353,35 +7359,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7389,13 +7390,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>535968.9484369244</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R57" t="n">
-        <v>7209745.533198988</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7443,6 +7444,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7461,10 +7463,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111623026</v>
+        <v>111624097</v>
       </c>
       <c r="B58" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7473,30 +7475,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7504,13 +7511,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536102.963546137</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R58" t="n">
-        <v>7209275.480738332</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S58" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7558,7 +7565,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7577,10 +7583,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111624238</v>
+        <v>111622736</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7589,35 +7595,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7625,13 +7626,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>536021.4365124467</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R59" t="n">
-        <v>7209467.40269117</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7679,6 +7680,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7697,10 +7699,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111621888</v>
+        <v>111623155</v>
       </c>
       <c r="B60" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7709,30 +7711,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7740,10 +7747,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>536416.0900422698</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R60" t="n">
-        <v>7209162.523791903</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7794,7 +7801,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7813,7 +7819,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111623155</v>
+        <v>111623511</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7861,13 +7867,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535977.4727609204</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R61" t="n">
-        <v>7209320.07617898</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111622173</v>
+        <v>111624344</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7981,13 +7987,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536211.5596349295</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R62" t="n">
-        <v>7208983.18093912</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8037,21 +8043,6 @@
       </c>
       <c r="AG62" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8068,7 +8059,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111625238</v>
+        <v>111623493</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -8116,10 +8107,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536371.5755853961</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R63" t="n">
-        <v>7209512.6894844</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8188,10 +8179,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623001</v>
+        <v>111623417</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8200,25 +8191,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8231,13 +8222,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536109.6063802312</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R64" t="n">
-        <v>7209286.560724956</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S64" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8304,10 +8295,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111622736</v>
+        <v>111623697</v>
       </c>
       <c r="B65" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8316,30 +8307,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8347,13 +8343,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535953.8130829642</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R65" t="n">
-        <v>7209209.795134133</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8401,7 +8397,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8420,10 +8415,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111623556</v>
+        <v>111623001</v>
       </c>
       <c r="B66" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8432,25 +8427,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8463,13 +8458,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>535929.7413597835</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R66" t="n">
-        <v>7209590.241238016</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8536,7 +8531,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111624097</v>
+        <v>111622557</v>
       </c>
       <c r="B67" t="n">
         <v>56398</v>
@@ -8574,7 +8569,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -8584,13 +8579,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535928.2260010642</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R67" t="n">
-        <v>7209575.417457776</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8656,10 +8651,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621741</v>
+        <v>111621404</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8672,21 +8667,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8699,10 +8694,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536601.4752199765</v>
+        <v>536490.2040342408</v>
       </c>
       <c r="R68" t="n">
-        <v>7209070.870306575</v>
+        <v>7208921.420983357</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8756,26 +8751,6 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL68" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8792,10 +8767,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621404</v>
+        <v>111621391</v>
       </c>
       <c r="B69" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8808,26 +8783,31 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8835,10 +8815,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536490.2040342408</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R69" t="n">
-        <v>7208921.420983357</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8889,9 +8869,23 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8908,7 +8902,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621709</v>
+        <v>111621741</v>
       </c>
       <c r="B70" t="n">
         <v>89423</v>
@@ -8951,10 +8945,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536588.4287280297</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R70" t="n">
-        <v>7209063.940678015</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9175,10 +9169,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621391</v>
+        <v>111621709</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9191,31 +9185,26 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9223,10 +9212,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536493.9251405013</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R72" t="n">
-        <v>7208859.691794363</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9277,6 +9266,7 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9290,9 +9280,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111621565</v>
+        <v>111625160</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536384.5165957341</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R2" t="n">
-        <v>7208973.017290085</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -784,21 +784,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -815,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623057</v>
+        <v>111623925</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,30 +812,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -858,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536049.8462557254</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R3" t="n">
-        <v>7209289.644754019</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -912,7 +902,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -931,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111625160</v>
+        <v>111621565</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -979,10 +968,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536263.4947354996</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R4" t="n">
-        <v>7209449.609840255</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1035,6 +1024,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1051,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111623925</v>
+        <v>111623057</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,35 +1067,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1099,13 +1098,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>535975.1632773781</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R5" t="n">
-        <v>7209651.702600373</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1153,6 +1152,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111621800</v>
+        <v>111623468</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,30 +1651,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1682,13 +1687,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536440.4635266946</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R10" t="n">
-        <v>7209143.783224681</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1736,7 +1741,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1755,10 +1759,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111622583</v>
+        <v>111624564</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,35 +1771,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1803,13 +1802,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536007.9265540047</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R11" t="n">
-        <v>7209183.371993401</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1851,17 +1850,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1880,7 +1875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623076</v>
+        <v>111623840</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1918,7 +1913,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1928,13 +1923,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536023.4663215687</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R12" t="n">
-        <v>7209299.479105573</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2000,10 +1995,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623468</v>
+        <v>111624004</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,35 +2007,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2048,10 +2038,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535866.1958485778</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R13" t="n">
-        <v>7209556.480484258</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2102,6 +2092,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2120,10 +2111,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111624564</v>
+        <v>111625238</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2132,30 +2123,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2163,10 +2159,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536083.1087774199</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R14" t="n">
-        <v>7209411.039029445</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2217,7 +2213,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2236,10 +2231,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111623840</v>
+        <v>111623026</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2248,35 +2243,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2284,13 +2274,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535969.6370432132</v>
+        <v>536102.963546137</v>
       </c>
       <c r="R15" t="n">
-        <v>7209758.654224422</v>
+        <v>7209275.480738332</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2338,6 +2328,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2356,7 +2347,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111624004</v>
+        <v>111621800</v>
       </c>
       <c r="B16" t="n">
         <v>90087</v>
@@ -2399,13 +2390,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>535979.5667387084</v>
+        <v>536440.4635266946</v>
       </c>
       <c r="R16" t="n">
-        <v>7209602.686786775</v>
+        <v>7209143.783224681</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2472,7 +2463,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111625238</v>
+        <v>111622583</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2510,7 +2501,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2520,13 +2511,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536371.5755853961</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R17" t="n">
-        <v>7209512.6894844</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2566,6 +2557,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2592,10 +2588,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623026</v>
+        <v>111623076</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2604,30 +2600,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2635,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536102.963546137</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R18" t="n">
-        <v>7209275.480738332</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2689,7 +2690,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111622590</v>
+        <v>111625148</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3234,26 +3234,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3261,13 +3266,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536007.9265540047</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R23" t="n">
-        <v>7209183.371993401</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3315,7 +3320,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3334,10 +3338,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111625148</v>
+        <v>111622590</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3350,31 +3354,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3382,13 +3381,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536244.5255485425</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R24" t="n">
-        <v>7209442.18746885</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3436,6 +3435,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111621572</v>
+        <v>111623380</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3698,30 +3698,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3729,10 +3734,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536384.5165957341</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R27" t="n">
-        <v>7208973.017290085</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3777,35 +3782,14 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3822,7 +3806,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111622229</v>
+        <v>111624010</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3860,7 +3844,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3870,13 +3854,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536040.4055433145</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R28" t="n">
-        <v>7209159.649405509</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3926,21 +3910,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3957,10 +3926,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111621985</v>
+        <v>111624006</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3973,21 +3942,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4000,13 +3969,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536396.9230770704</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R29" t="n">
-        <v>7209171.174238501</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4073,10 +4042,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111623380</v>
+        <v>111621572</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4085,35 +4054,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4121,10 +4085,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>535912.0367731415</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R30" t="n">
-        <v>7209513.038373807</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4169,14 +4133,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4193,7 +4178,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111624010</v>
+        <v>111622229</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4231,7 +4216,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4241,13 +4226,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535979.5667387084</v>
+        <v>536040.4055433145</v>
       </c>
       <c r="R31" t="n">
-        <v>7209602.686786775</v>
+        <v>7209159.649405509</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4297,6 +4282,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4313,10 +4313,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111624006</v>
+        <v>111621985</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4329,21 +4329,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4356,13 +4356,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>535979.5667387084</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R32" t="n">
-        <v>7209602.686786775</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -5057,10 +5057,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111623672</v>
+        <v>111622612</v>
       </c>
       <c r="B38" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5069,25 +5069,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5100,13 +5100,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535988.4578048707</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R38" t="n">
-        <v>7209708.122271948</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111623592</v>
+        <v>111622173</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>535951.6286454553</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R39" t="n">
-        <v>7209601.503558567</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5277,6 +5277,21 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5293,10 +5308,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111622173</v>
+        <v>111623672</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5305,35 +5320,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5341,13 +5351,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536211.5596349295</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R40" t="n">
-        <v>7208983.18093912</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5395,23 +5405,9 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5428,10 +5424,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111622612</v>
+        <v>111623592</v>
       </c>
       <c r="B41" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5444,26 +5440,31 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5471,13 +5472,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535976.2494590636</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R41" t="n">
-        <v>7209175.797223139</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5525,7 +5526,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111624450</v>
+        <v>111623000</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -6186,7 +6186,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6196,13 +6196,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536057.8671864467</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R47" t="n">
-        <v>7209431.885401525</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111624558</v>
+        <v>111622636</v>
       </c>
       <c r="B48" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6284,21 +6284,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6306,13 +6316,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536083.1087774199</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R48" t="n">
-        <v>7209411.039029445</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6360,7 +6370,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6379,10 +6388,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111625227</v>
+        <v>111624450</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6395,26 +6404,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6422,10 +6436,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536368.8900330348</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R49" t="n">
-        <v>7209489.813207326</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6476,7 +6490,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6495,10 +6508,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111623737</v>
+        <v>111624558</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89790</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6511,31 +6524,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6543,10 +6546,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535968.9484369244</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R50" t="n">
-        <v>7209745.533198988</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6597,6 +6600,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6615,10 +6619,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111623556</v>
+        <v>111625227</v>
       </c>
       <c r="B51" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6627,25 +6631,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6658,10 +6662,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535929.7413597835</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R51" t="n">
-        <v>7209590.241238016</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6731,7 +6735,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623000</v>
+        <v>111623737</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6779,13 +6783,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536109.6063802312</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R52" t="n">
-        <v>7209286.560724956</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6851,10 +6855,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111622636</v>
+        <v>111623556</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6863,35 +6867,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6899,13 +6898,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535993.6234792916</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R53" t="n">
-        <v>7209210.275665025</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6953,6 +6952,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111625160</v>
+        <v>111623155</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536263.4947354996</v>
+        <v>535977.4727609204</v>
       </c>
       <c r="R2" t="n">
-        <v>7209449.609840255</v>
+        <v>7209320.07617898</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111623925</v>
+        <v>111624238</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -838,7 +838,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535975.1632773781</v>
+        <v>536021.4365124467</v>
       </c>
       <c r="R3" t="n">
-        <v>7209651.702600373</v>
+        <v>7209467.40269117</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111621565</v>
+        <v>111623904</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -958,7 +958,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536384.5165957341</v>
+        <v>535966.8369070068</v>
       </c>
       <c r="R4" t="n">
-        <v>7208973.017290085</v>
+        <v>7209674.867268311</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,21 +1024,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1055,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111623057</v>
+        <v>111621565</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,30 +1052,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1098,13 +1088,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536049.8462557254</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R5" t="n">
-        <v>7209289.644754019</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1152,9 +1142,23 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1171,7 +1175,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111623828</v>
+        <v>111621572</v>
       </c>
       <c r="B6" t="n">
         <v>90087</v>
@@ -1214,10 +1218,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535969.6370432132</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R6" t="n">
-        <v>7209758.654224422</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,6 +1266,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1271,6 +1280,21 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1287,7 +1311,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111623503</v>
+        <v>111624097</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1335,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>535856.860287422</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R7" t="n">
-        <v>7209593.170475948</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1407,7 +1431,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111622312</v>
+        <v>111623672</v>
       </c>
       <c r="B8" t="n">
         <v>90087</v>
@@ -1450,13 +1474,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536040.9507766268</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R8" t="n">
-        <v>7209184.617312368</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1523,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111622996</v>
+        <v>111625174</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,30 +1559,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1566,13 +1595,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536109.6063802312</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R9" t="n">
-        <v>7209286.560724956</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1614,13 +1643,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack på 2 granar</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1639,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111623468</v>
+        <v>111621552</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1687,13 +1720,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>535866.1958485778</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R10" t="n">
-        <v>7209556.480484258</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1743,6 +1776,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1759,10 +1807,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111624564</v>
+        <v>111623569</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1771,30 +1819,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1802,10 +1855,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536083.1087774199</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R11" t="n">
-        <v>7209411.039029445</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1856,7 +1909,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1875,7 +1927,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111623840</v>
+        <v>111625238</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1923,10 +1975,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535969.6370432132</v>
+        <v>536371.5755853961</v>
       </c>
       <c r="R12" t="n">
-        <v>7209758.654224422</v>
+        <v>7209512.6894844</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1995,7 +2047,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111624004</v>
+        <v>111623828</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2038,10 +2090,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535979.5667387084</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R13" t="n">
-        <v>7209602.686786775</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2111,10 +2163,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111625238</v>
+        <v>111623001</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2127,31 +2179,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2159,13 +2206,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536371.5755853961</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R14" t="n">
-        <v>7209512.6894844</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2213,6 +2260,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2463,10 +2511,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111622583</v>
+        <v>111623057</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2475,35 +2523,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2511,13 +2554,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536007.9265540047</v>
+        <v>536049.8462557254</v>
       </c>
       <c r="R17" t="n">
-        <v>7209183.371993401</v>
+        <v>7209289.644754019</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2559,17 +2602,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2588,10 +2627,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623076</v>
+        <v>111623556</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2600,35 +2639,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2636,13 +2670,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536023.4663215687</v>
+        <v>535929.7413597835</v>
       </c>
       <c r="R18" t="n">
-        <v>7209299.479105573</v>
+        <v>7209590.241238016</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2690,6 +2724,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2708,7 +2743,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111621552</v>
+        <v>111623840</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2746,7 +2781,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2756,13 +2791,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536390.751010091</v>
+        <v>535969.6370432132</v>
       </c>
       <c r="R19" t="n">
-        <v>7208948.130241925</v>
+        <v>7209758.654224422</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2812,21 +2847,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2843,10 +2863,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111624238</v>
+        <v>111621975</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2855,35 +2875,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2891,13 +2906,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536021.4365124467</v>
+        <v>536396.9230770704</v>
       </c>
       <c r="R20" t="n">
-        <v>7209467.40269117</v>
+        <v>7209171.174238501</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2939,14 +2954,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2963,7 +2999,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111623539</v>
+        <v>111621484</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3001,7 +3037,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -3011,10 +3047,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>535903.0276557686</v>
+        <v>536395.2396464556</v>
       </c>
       <c r="R21" t="n">
-        <v>7209592.880347125</v>
+        <v>7208927.45277346</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3067,6 +3103,21 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3083,10 +3134,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111621424</v>
+        <v>111622318</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3099,31 +3150,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3131,10 +3177,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536427.0683239623</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R22" t="n">
-        <v>7208922.764273487</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3185,23 +3231,9 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3218,7 +3250,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111625148</v>
+        <v>111623697</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3266,10 +3298,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536244.5255485425</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R23" t="n">
-        <v>7209442.18746885</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3338,10 +3370,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111622590</v>
+        <v>111624004</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3350,25 +3382,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3381,13 +3413,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536007.9265540047</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R24" t="n">
-        <v>7209183.371993401</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3454,10 +3486,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111624052</v>
+        <v>111623740</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3466,25 +3498,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3497,10 +3529,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535928.2260010642</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R25" t="n">
-        <v>7209575.417457776</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3570,10 +3602,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111624796</v>
+        <v>111622152</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3586,26 +3618,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3613,13 +3650,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536163.4453901229</v>
+        <v>536330.5895068019</v>
       </c>
       <c r="R26" t="n">
-        <v>7209387.476444452</v>
+        <v>7209122.557094801</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3667,9 +3704,23 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3686,7 +3737,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111623380</v>
+        <v>111624344</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3734,10 +3785,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>535912.0367731415</v>
+        <v>536034.9019056049</v>
       </c>
       <c r="R27" t="n">
-        <v>7209513.038373807</v>
+        <v>7209439.645294238</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3806,7 +3857,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111624010</v>
+        <v>111623592</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3854,10 +3905,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>535979.5667387084</v>
+        <v>535951.6286454553</v>
       </c>
       <c r="R28" t="n">
-        <v>7209602.686786775</v>
+        <v>7209601.503558567</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3926,10 +3977,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111624006</v>
+        <v>111623503</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3942,26 +3993,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3969,10 +4025,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>535979.5667387084</v>
+        <v>535856.860287422</v>
       </c>
       <c r="R29" t="n">
-        <v>7209602.686786775</v>
+        <v>7209593.170475948</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4023,7 +4079,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4042,7 +4097,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111621572</v>
+        <v>111623862</v>
       </c>
       <c r="B30" t="n">
         <v>90087</v>
@@ -4085,10 +4140,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536384.5165957341</v>
+        <v>535978.2032259003</v>
       </c>
       <c r="R30" t="n">
-        <v>7208973.017290085</v>
+        <v>7209715.612372425</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4133,11 +4188,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4147,21 +4197,6 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4313,10 +4348,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111621985</v>
+        <v>111624625</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4329,21 +4364,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4356,13 +4391,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536396.9230770704</v>
+        <v>536146.6289329219</v>
       </c>
       <c r="R32" t="n">
-        <v>7209171.174238501</v>
+        <v>7209377.11937314</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4402,6 +4437,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4429,10 +4469,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111623740</v>
+        <v>111623076</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4441,30 +4481,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4472,13 +4517,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>535968.9484369244</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R33" t="n">
-        <v>7209745.533198988</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4526,7 +4571,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4545,7 +4589,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111623569</v>
+        <v>111621424</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4593,13 +4637,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535929.7413597835</v>
+        <v>536427.0683239623</v>
       </c>
       <c r="R34" t="n">
-        <v>7209590.241238016</v>
+        <v>7208922.764273487</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4649,6 +4693,21 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4665,10 +4724,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111624625</v>
+        <v>111621888</v>
       </c>
       <c r="B35" t="n">
-        <v>89401</v>
+        <v>90087</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4677,25 +4736,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1108</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4708,13 +4767,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536146.6289329219</v>
+        <v>536416.0900422698</v>
       </c>
       <c r="R35" t="n">
-        <v>7209377.11937314</v>
+        <v>7209162.523791903</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4754,11 +4813,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4786,10 +4840,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111621975</v>
+        <v>111621985</v>
       </c>
       <c r="B36" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4798,25 +4852,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4877,11 +4931,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Troligen trådticka? Börjat bli nedbruten isåfall</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -4891,21 +4940,6 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4922,7 +4956,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111622152</v>
+        <v>111623539</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4970,13 +5004,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536330.5895068019</v>
+        <v>535903.0276557686</v>
       </c>
       <c r="R37" t="n">
-        <v>7209122.557094801</v>
+        <v>7209592.880347125</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5026,21 +5060,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -5057,10 +5076,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111622612</v>
+        <v>111625148</v>
       </c>
       <c r="B38" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5073,26 +5092,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5100,13 +5124,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>535976.2494590636</v>
+        <v>536244.5255485425</v>
       </c>
       <c r="R38" t="n">
-        <v>7209175.797223139</v>
+        <v>7209442.18746885</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5154,7 +5178,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5173,7 +5196,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111622173</v>
+        <v>111622583</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5211,7 +5234,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -5221,10 +5244,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536211.5596349295</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R39" t="n">
-        <v>7208983.18093912</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5269,6 +5292,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
@@ -5277,21 +5305,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5308,10 +5321,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111623672</v>
+        <v>111621872</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5320,25 +5333,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5351,13 +5364,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535988.4578048707</v>
+        <v>536440.3290520471</v>
       </c>
       <c r="R40" t="n">
-        <v>7209708.122271948</v>
+        <v>7209154.781605188</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5408,6 +5421,26 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5424,10 +5457,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111623592</v>
+        <v>111622996</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5436,35 +5469,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5472,13 +5500,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535951.6286454553</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R41" t="n">
-        <v>7209601.503558567</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5526,6 +5554,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5544,10 +5573,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111621872</v>
+        <v>111622312</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5556,25 +5585,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5587,10 +5616,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536440.3290520471</v>
+        <v>536040.9507766268</v>
       </c>
       <c r="R42" t="n">
-        <v>7209154.781605188</v>
+        <v>7209184.617312368</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5644,26 +5673,6 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5680,10 +5689,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111623862</v>
+        <v>111622557</v>
       </c>
       <c r="B43" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5692,30 +5701,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5723,13 +5737,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>535978.2032259003</v>
+        <v>536009.1715554149</v>
       </c>
       <c r="R43" t="n">
-        <v>7209715.612372425</v>
+        <v>7209185.502391796</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5777,7 +5791,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5796,10 +5809,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111623904</v>
+        <v>111622612</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5812,31 +5825,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5844,13 +5852,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535966.8369070068</v>
+        <v>535976.2494590636</v>
       </c>
       <c r="R44" t="n">
-        <v>7209674.867268311</v>
+        <v>7209175.797223139</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5898,6 +5906,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5916,10 +5925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111622318</v>
+        <v>111622173</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5932,26 +5941,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5959,10 +5973,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536040.9507766268</v>
+        <v>536211.5596349295</v>
       </c>
       <c r="R45" t="n">
-        <v>7209184.617312368</v>
+        <v>7208983.18093912</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6013,9 +6027,23 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -6032,10 +6060,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111621888</v>
+        <v>111624052</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6044,25 +6072,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6075,13 +6103,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>536416.0900422698</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R46" t="n">
-        <v>7209162.523791903</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6148,7 +6176,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111623000</v>
+        <v>111624010</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -6186,7 +6214,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6196,13 +6224,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536109.6063802312</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R47" t="n">
-        <v>7209286.560724956</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6268,10 +6296,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111622636</v>
+        <v>111623126</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6280,35 +6308,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6316,13 +6339,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535993.6234792916</v>
+        <v>536023.4663215687</v>
       </c>
       <c r="R48" t="n">
-        <v>7209210.275665025</v>
+        <v>7209299.479105573</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6370,6 +6393,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6388,7 +6412,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111624450</v>
+        <v>111623925</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6426,7 +6450,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6436,10 +6460,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536057.8671864467</v>
+        <v>535975.1632773781</v>
       </c>
       <c r="R49" t="n">
-        <v>7209431.885401525</v>
+        <v>7209651.702600373</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6508,10 +6532,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111624558</v>
+        <v>111622993</v>
       </c>
       <c r="B50" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6524,21 +6548,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6546,13 +6580,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536083.1087774199</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R50" t="n">
-        <v>7209411.039029445</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6600,7 +6634,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6619,10 +6652,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111625227</v>
+        <v>111622736</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6631,25 +6664,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6662,13 +6695,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536368.8900330348</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R51" t="n">
-        <v>7209489.813207326</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6735,10 +6768,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623737</v>
+        <v>111623417</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6747,35 +6780,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6783,10 +6811,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535968.9484369244</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R52" t="n">
-        <v>7209745.533198988</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6837,6 +6865,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6855,10 +6884,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111623556</v>
+        <v>111624796</v>
       </c>
       <c r="B53" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6867,25 +6896,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6898,10 +6927,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535929.7413597835</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R53" t="n">
-        <v>7209590.241238016</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6971,10 +7000,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111624781</v>
+        <v>111623380</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6987,26 +7016,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7014,10 +7048,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536163.4453901229</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R54" t="n">
-        <v>7209387.476444452</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7062,18 +7096,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7092,10 +7120,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111622734</v>
+        <v>111622590</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7108,31 +7136,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7140,10 +7163,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>535953.8130829642</v>
+        <v>536007.9265540047</v>
       </c>
       <c r="R55" t="n">
-        <v>7209209.795134133</v>
+        <v>7209183.371993401</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7194,6 +7217,7 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7212,7 +7236,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111621484</v>
+        <v>111623511</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7250,7 +7274,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -7260,10 +7284,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536395.2396464556</v>
+        <v>535899.6858320399</v>
       </c>
       <c r="R56" t="n">
-        <v>7208927.45277346</v>
+        <v>7209589.032964948</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7316,21 +7340,6 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -7347,7 +7356,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111623126</v>
+        <v>111624564</v>
       </c>
       <c r="B57" t="n">
         <v>90087</v>
@@ -7390,13 +7399,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536023.4663215687</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R57" t="n">
-        <v>7209299.479105573</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7463,10 +7472,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111624097</v>
+        <v>111624006</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7479,31 +7488,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7511,10 +7515,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>535928.2260010642</v>
+        <v>535979.5667387084</v>
       </c>
       <c r="R58" t="n">
-        <v>7209575.417457776</v>
+        <v>7209602.686786775</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7565,6 +7569,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7583,10 +7588,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111622736</v>
+        <v>111624450</v>
       </c>
       <c r="B59" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7595,30 +7600,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7626,13 +7636,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535953.8130829642</v>
+        <v>536057.8671864467</v>
       </c>
       <c r="R59" t="n">
-        <v>7209209.795134133</v>
+        <v>7209431.885401525</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7680,7 +7690,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7699,7 +7708,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623155</v>
+        <v>111623493</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7747,13 +7756,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535977.4727609204</v>
+        <v>535838.0792552171</v>
       </c>
       <c r="R60" t="n">
-        <v>7209320.07617898</v>
+        <v>7209570.101763099</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7819,7 +7828,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111623511</v>
+        <v>111622636</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7867,13 +7876,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535899.6858320399</v>
+        <v>535993.6234792916</v>
       </c>
       <c r="R61" t="n">
-        <v>7209589.032964948</v>
+        <v>7209210.275665025</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7939,7 +7948,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111624344</v>
+        <v>111622734</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7987,13 +7996,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536034.9019056049</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R62" t="n">
-        <v>7209439.645294238</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8059,7 +8068,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111623493</v>
+        <v>111623737</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -8097,7 +8106,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8107,10 +8116,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535838.0792552171</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R63" t="n">
-        <v>7209570.101763099</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8179,10 +8188,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623417</v>
+        <v>111624558</v>
       </c>
       <c r="B64" t="n">
-        <v>90087</v>
+        <v>89790</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8191,25 +8200,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3298</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Trådticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8222,10 +8226,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535866.1958485778</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R64" t="n">
-        <v>7209556.480484258</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8295,10 +8299,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111623697</v>
+        <v>111625227</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8311,31 +8315,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8343,10 +8342,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535988.4578048707</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R65" t="n">
-        <v>7209708.122271948</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8397,6 +8396,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111623001</v>
+        <v>111624781</v>
       </c>
       <c r="B66" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8431,21 +8431,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8458,13 +8458,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536109.6063802312</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R66" t="n">
-        <v>7209286.560724956</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S66" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8504,6 +8504,11 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8531,7 +8536,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111622557</v>
+        <v>111623468</v>
       </c>
       <c r="B67" t="n">
         <v>56398</v>
@@ -8579,13 +8584,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>536009.1715554149</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R67" t="n">
-        <v>7209185.502391796</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8767,10 +8772,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621391</v>
+        <v>111621741</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8783,31 +8788,26 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8815,10 +8815,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536493.9251405013</v>
+        <v>536601.4752199765</v>
       </c>
       <c r="R69" t="n">
-        <v>7208859.691794363</v>
+        <v>7209070.870306575</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8869,6 +8869,7 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8882,9 +8883,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8902,10 +8908,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621741</v>
+        <v>111621391</v>
       </c>
       <c r="B70" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8918,26 +8924,31 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8945,10 +8956,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536601.4752199765</v>
+        <v>536493.9251405013</v>
       </c>
       <c r="R70" t="n">
-        <v>7209070.870306575</v>
+        <v>7208859.691794363</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8999,7 +9010,6 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -9013,14 +9023,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9038,10 +9043,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621754</v>
+        <v>111621709</v>
       </c>
       <c r="B71" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9050,25 +9055,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9081,10 +9086,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536493.437552894</v>
+        <v>536588.4287280297</v>
       </c>
       <c r="R71" t="n">
-        <v>7209072.507141155</v>
+        <v>7209063.940678015</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9149,9 +9154,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9169,10 +9179,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621709</v>
+        <v>111621754</v>
       </c>
       <c r="B72" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9181,25 +9191,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9212,10 +9222,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536588.4287280297</v>
+        <v>536493.437552894</v>
       </c>
       <c r="R72" t="n">
-        <v>7209063.940678015</v>
+        <v>7209072.507141155</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9280,14 +9290,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111621565</v>
+        <v>111621552</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,7 +1078,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536384.5165957341</v>
+        <v>536390.751010091</v>
       </c>
       <c r="R5" t="n">
-        <v>7208973.017290085</v>
+        <v>7208948.130241925</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111621572</v>
+        <v>111621565</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,30 +1187,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1266,18 +1271,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1311,10 +1310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111624097</v>
+        <v>111621572</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1323,35 +1322,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1359,10 +1353,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>535928.2260010642</v>
+        <v>536384.5165957341</v>
       </c>
       <c r="R7" t="n">
-        <v>7209575.417457776</v>
+        <v>7208973.017290085</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1407,14 +1401,35 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1431,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111623672</v>
+        <v>111624097</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,30 +1458,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1474,10 +1494,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535988.4578048707</v>
+        <v>535928.2260010642</v>
       </c>
       <c r="R8" t="n">
-        <v>7209708.122271948</v>
+        <v>7209575.417457776</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1528,7 +1548,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1547,10 +1566,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111625174</v>
+        <v>111623672</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1559,35 +1578,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1595,10 +1609,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536263.4947354996</v>
+        <v>535988.4578048707</v>
       </c>
       <c r="R9" t="n">
-        <v>7209449.609840255</v>
+        <v>7209708.122271948</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1643,17 +1657,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack på 2 granar</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1672,7 +1682,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111621552</v>
+        <v>111625174</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1710,7 +1720,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1720,13 +1730,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536390.751010091</v>
+        <v>536263.4947354996</v>
       </c>
       <c r="R10" t="n">
-        <v>7208948.130241925</v>
+        <v>7209449.609840255</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1768,6 +1778,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på 2 granar</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1776,21 +1791,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -6532,10 +6532,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111622993</v>
+        <v>111622736</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6544,35 +6544,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6580,13 +6575,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536109.6063802312</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R50" t="n">
-        <v>7209286.560724956</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S50" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6634,6 +6629,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6652,7 +6648,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111622736</v>
+        <v>111623417</v>
       </c>
       <c r="B51" t="n">
         <v>90087</v>
@@ -6695,13 +6691,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535953.8130829642</v>
+        <v>535866.1958485778</v>
       </c>
       <c r="R51" t="n">
-        <v>7209209.795134133</v>
+        <v>7209556.480484258</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6768,10 +6764,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111623417</v>
+        <v>111624796</v>
       </c>
       <c r="B52" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6780,25 +6776,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6811,10 +6807,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535866.1958485778</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R52" t="n">
-        <v>7209556.480484258</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6884,10 +6880,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111624796</v>
+        <v>111623380</v>
       </c>
       <c r="B53" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6900,26 +6896,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6927,10 +6928,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536163.4453901229</v>
+        <v>535912.0367731415</v>
       </c>
       <c r="R53" t="n">
-        <v>7209387.476444452</v>
+        <v>7209513.038373807</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6981,7 +6982,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111623380</v>
+        <v>111622993</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -7048,13 +7048,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535912.0367731415</v>
+        <v>536109.6063802312</v>
       </c>
       <c r="R54" t="n">
-        <v>7209513.038373807</v>
+        <v>7209286.560724956</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111622734</v>
+        <v>111624781</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7964,31 +7964,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7996,13 +7991,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>535953.8130829642</v>
+        <v>536163.4453901229</v>
       </c>
       <c r="R62" t="n">
-        <v>7209209.795134133</v>
+        <v>7209387.476444452</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8044,12 +8039,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8068,7 +8069,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111623737</v>
+        <v>111622734</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -8106,7 +8107,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8116,13 +8117,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535968.9484369244</v>
+        <v>535953.8130829642</v>
       </c>
       <c r="R63" t="n">
-        <v>7209745.533198988</v>
+        <v>7209209.795134133</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8188,10 +8189,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111624558</v>
+        <v>111623737</v>
       </c>
       <c r="B64" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8204,21 +8205,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8226,10 +8237,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536083.1087774199</v>
+        <v>535968.9484369244</v>
       </c>
       <c r="R64" t="n">
-        <v>7209411.039029445</v>
+        <v>7209745.533198988</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8280,7 +8291,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8299,10 +8309,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111625227</v>
+        <v>111624558</v>
       </c>
       <c r="B65" t="n">
-        <v>77515</v>
+        <v>89790</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8315,21 +8325,16 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8342,10 +8347,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>536368.8900330348</v>
+        <v>536083.1087774199</v>
       </c>
       <c r="R65" t="n">
-        <v>7209489.813207326</v>
+        <v>7209411.039029445</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8415,10 +8420,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111624781</v>
+        <v>111625227</v>
       </c>
       <c r="B66" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8431,21 +8436,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8458,10 +8463,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536163.4453901229</v>
+        <v>536368.8900330348</v>
       </c>
       <c r="R66" t="n">
-        <v>7209387.476444452</v>
+        <v>7209489.813207326</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8504,11 +8509,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 33672-2023.xlsx
+++ b/artfynd/A 33672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111623155</v>
+        <v>111624796</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>535977.4727609204</v>
+        <v>536163</v>
       </c>
       <c r="R2" t="n">
-        <v>7209320.07617898</v>
+        <v>7209387</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,27 +756,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111624238</v>
+        <v>111624564</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,35 +798,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536021.4365124467</v>
+        <v>536083</v>
       </c>
       <c r="R3" t="n">
-        <v>7209467.40269117</v>
+        <v>7209411</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -881,27 +862,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -920,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111623904</v>
+        <v>111622318</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,31 +908,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -968,13 +935,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535966.8369070068</v>
+        <v>536041</v>
       </c>
       <c r="R4" t="n">
-        <v>7209674.867268311</v>
+        <v>7209185</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1001,27 +968,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1040,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111621552</v>
+        <v>111622312</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,35 +1010,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1088,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536390.751010091</v>
+        <v>536041</v>
       </c>
       <c r="R5" t="n">
-        <v>7208948.130241925</v>
+        <v>7209185</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,44 +1074,20 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1175,7 +1104,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111621565</v>
+        <v>111621424</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1213,7 +1142,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1223,13 +1152,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536384.5165957341</v>
+        <v>536427</v>
       </c>
       <c r="R6" t="n">
-        <v>7208973.017290085</v>
+        <v>7208923</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1256,19 +1185,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1310,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111621572</v>
+        <v>111622557</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1322,30 +1241,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1353,13 +1277,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536384.5165957341</v>
+        <v>536009</v>
       </c>
       <c r="R7" t="n">
-        <v>7208973.017290085</v>
+        <v>7209186</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1386,50 +1310,19 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Vid stambasen, stående gran</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1446,10 +1339,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111624097</v>
+        <v>111621800</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,35 +1351,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1494,13 +1382,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535928.2260010642</v>
+        <v>536440</v>
       </c>
       <c r="R8" t="n">
-        <v>7209575.417457776</v>
+        <v>7209144</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1527,27 +1415,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1566,10 +1445,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111623672</v>
+        <v>111622229</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1578,30 +1457,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1609,13 +1493,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>535988.4578048707</v>
+        <v>536040</v>
       </c>
       <c r="R9" t="n">
-        <v>7209708.122271948</v>
+        <v>7209160</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1642,30 +1526,34 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1682,10 +1570,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111625174</v>
+        <v>111622996</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1694,35 +1582,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1730,13 +1613,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536263.4947354996</v>
+        <v>536110</v>
       </c>
       <c r="R10" t="n">
-        <v>7209449.609840255</v>
+        <v>7209287</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1763,32 +1646,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack på 2 granar</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1855,10 +1724,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535929.7413597835</v>
+        <v>535930</v>
       </c>
       <c r="R11" t="n">
-        <v>7209590.241238016</v>
+        <v>7209590</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1888,19 +1757,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1927,10 +1786,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111625238</v>
+        <v>111622736</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1939,35 +1798,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1975,13 +1829,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536371.5755853961</v>
+        <v>535954</v>
       </c>
       <c r="R12" t="n">
-        <v>7209512.6894844</v>
+        <v>7209210</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2008,27 +1862,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2047,7 +1892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111623828</v>
+        <v>111623556</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2090,10 +1935,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535969.6370432132</v>
+        <v>535930</v>
       </c>
       <c r="R13" t="n">
-        <v>7209758.654224422</v>
+        <v>7209590</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2123,19 +1968,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2163,10 +1998,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111623001</v>
+        <v>111625238</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2179,26 +2014,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2206,13 +2046,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536109.6063802312</v>
+        <v>536372</v>
       </c>
       <c r="R14" t="n">
-        <v>7209286.560724956</v>
+        <v>7209513</v>
       </c>
       <c r="S14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2239,28 +2079,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2279,10 +2108,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111623026</v>
+        <v>111625174</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2291,30 +2120,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2322,13 +2156,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536102.963546137</v>
+        <v>536263</v>
       </c>
       <c r="R15" t="n">
-        <v>7209275.480738332</v>
+        <v>7209450</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2355,19 +2189,14 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack på 2 granar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2376,7 +2205,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2395,10 +2223,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111621800</v>
+        <v>111625155</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2407,30 +2235,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2438,13 +2271,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536440.4635266946</v>
+        <v>536245</v>
       </c>
       <c r="R16" t="n">
-        <v>7209143.783224681</v>
+        <v>7209442</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2471,28 +2304,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2511,10 +2333,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111623057</v>
+        <v>111623737</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2523,30 +2345,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2554,13 +2381,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536049.8462557254</v>
+        <v>535969</v>
       </c>
       <c r="R17" t="n">
-        <v>7209289.644754019</v>
+        <v>7209746</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2587,28 +2414,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2627,7 +2443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111623556</v>
+        <v>111623026</v>
       </c>
       <c r="B18" t="n">
         <v>90087</v>
@@ -2670,13 +2486,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535929.7413597835</v>
+        <v>536103</v>
       </c>
       <c r="R18" t="n">
-        <v>7209590.241238016</v>
+        <v>7209275</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2703,19 +2519,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2743,10 +2549,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111623840</v>
+        <v>111623057</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,35 +2561,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2791,13 +2592,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>535969.6370432132</v>
+        <v>536050</v>
       </c>
       <c r="R19" t="n">
-        <v>7209758.654224422</v>
+        <v>7209290</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2824,27 +2625,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2906,10 +2698,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536396.9230770704</v>
+        <v>536397</v>
       </c>
       <c r="R20" t="n">
-        <v>7209171.174238501</v>
+        <v>7209171</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2939,19 +2731,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -2999,10 +2781,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111621484</v>
+        <v>111623417</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3011,35 +2793,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3047,10 +2824,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536395.2396464556</v>
+        <v>535866</v>
       </c>
       <c r="R21" t="n">
-        <v>7208927.45277346</v>
+        <v>7209556</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3080,44 +2857,20 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3134,10 +2887,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111622318</v>
+        <v>111621565</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3150,26 +2903,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3177,13 +2935,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536040.9507766268</v>
+        <v>536385</v>
       </c>
       <c r="R22" t="n">
-        <v>7209184.617312368</v>
+        <v>7208973</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3210,30 +2968,34 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3250,7 +3012,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111623697</v>
+        <v>111624097</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3298,10 +3060,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>535988.4578048707</v>
+        <v>535928</v>
       </c>
       <c r="R23" t="n">
-        <v>7209708.122271948</v>
+        <v>7209575</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3331,19 +3093,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3370,7 +3122,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111624004</v>
+        <v>111623887</v>
       </c>
       <c r="B24" t="n">
         <v>90087</v>
@@ -3413,10 +3165,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535979.5667387084</v>
+        <v>535978</v>
       </c>
       <c r="R24" t="n">
-        <v>7209602.686786775</v>
+        <v>7209716</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3446,19 +3198,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3486,10 +3228,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111623740</v>
+        <v>111624781</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3498,25 +3240,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3529,10 +3271,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>535968.9484369244</v>
+        <v>536163</v>
       </c>
       <c r="R25" t="n">
-        <v>7209745.533198988</v>
+        <v>7209387</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3562,19 +3304,14 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3650,10 +3387,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536330.5895068019</v>
+        <v>536331</v>
       </c>
       <c r="R26" t="n">
-        <v>7209122.557094801</v>
+        <v>7209123</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3683,19 +3420,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3737,10 +3464,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111624344</v>
+        <v>111621572</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3749,35 +3476,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3785,10 +3507,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536034.9019056049</v>
+        <v>536385</v>
       </c>
       <c r="R27" t="n">
-        <v>7209439.645294238</v>
+        <v>7208973</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3818,19 +3540,14 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Vid stambasen, stående gran</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3839,8 +3556,24 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3857,10 +3590,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111623592</v>
+        <v>111622590</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3873,31 +3606,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3905,13 +3633,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>535951.6286454553</v>
+        <v>536008</v>
       </c>
       <c r="R28" t="n">
-        <v>7209601.503558567</v>
+        <v>7209183</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3938,27 +3666,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3977,10 +3696,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111623503</v>
+        <v>111623740</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3989,35 +3708,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4025,10 +3739,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>535856.860287422</v>
+        <v>535969</v>
       </c>
       <c r="R29" t="n">
-        <v>7209593.170475948</v>
+        <v>7209746</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4058,27 +3772,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4097,10 +3802,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111623862</v>
+        <v>111621552</v>
       </c>
       <c r="B30" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4109,30 +3814,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4140,13 +3850,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>535978.2032259003</v>
+        <v>536391</v>
       </c>
       <c r="R30" t="n">
-        <v>7209715.612372425</v>
+        <v>7208948</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4173,30 +3883,34 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4213,7 +3927,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111622229</v>
+        <v>111622636</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4251,7 +3965,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4261,10 +3975,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536040.4055433145</v>
+        <v>535994</v>
       </c>
       <c r="R31" t="n">
-        <v>7209159.649405509</v>
+        <v>7209210</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4294,21 +4008,11 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4317,21 +4021,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4348,10 +4037,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111624625</v>
+        <v>111623468</v>
       </c>
       <c r="B32" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4364,26 +4053,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4391,10 +4085,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536146.6289329219</v>
+        <v>535866</v>
       </c>
       <c r="R32" t="n">
-        <v>7209377.11937314</v>
+        <v>7209556</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4424,33 +4118,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Både på stubbe och lågan</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4469,7 +4147,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111623076</v>
+        <v>111623539</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4507,7 +4185,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -4517,13 +4195,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536023.4663215687</v>
+        <v>535903</v>
       </c>
       <c r="R33" t="n">
-        <v>7209299.479105573</v>
+        <v>7209593</v>
       </c>
       <c r="S33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4550,19 +4228,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4589,7 +4257,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111621424</v>
+        <v>111623511</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4627,7 +4295,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4637,13 +4305,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>536427.0683239623</v>
+        <v>535900</v>
       </c>
       <c r="R34" t="n">
-        <v>7208922.764273487</v>
+        <v>7209589</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4670,21 +4338,11 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4693,21 +4351,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4724,10 +4367,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111621888</v>
+        <v>111621484</v>
       </c>
       <c r="B35" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4736,30 +4379,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4767,13 +4415,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536416.0900422698</v>
+        <v>536395</v>
       </c>
       <c r="R35" t="n">
-        <v>7209162.523791903</v>
+        <v>7208927</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4800,30 +4448,34 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4840,10 +4492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111621985</v>
+        <v>111624006</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4856,21 +4508,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4883,13 +4535,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536396.9230770704</v>
+        <v>535980</v>
       </c>
       <c r="R36" t="n">
-        <v>7209171.174238501</v>
+        <v>7209603</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4916,19 +4568,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4956,7 +4598,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111623539</v>
+        <v>111624450</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -5004,10 +4646,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>535903.0276557686</v>
+        <v>536058</v>
       </c>
       <c r="R37" t="n">
-        <v>7209592.880347125</v>
+        <v>7209432</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -5037,19 +4679,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5076,10 +4708,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111625148</v>
+        <v>111621872</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5092,31 +4724,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5124,13 +4751,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536244.5255485425</v>
+        <v>536440</v>
       </c>
       <c r="R38" t="n">
-        <v>7209442.18746885</v>
+        <v>7209155</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5157,29 +4784,40 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Toppknäckt gran</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies # Toppknäckt gran</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5196,10 +4834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111622583</v>
+        <v>111624558</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>89790</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5212,31 +4850,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5244,13 +4872,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536007.9265540047</v>
+        <v>536083</v>
       </c>
       <c r="R39" t="n">
-        <v>7209183.371993401</v>
+        <v>7209411</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5277,32 +4905,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5321,10 +4935,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111621872</v>
+        <v>111624010</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5337,26 +4951,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5364,13 +4983,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536440.3290520471</v>
+        <v>535980</v>
       </c>
       <c r="R40" t="n">
-        <v>7209154.781605188</v>
+        <v>7209603</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5397,50 +5016,19 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>Toppknäckt gran</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies # Toppknäckt gran</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5457,10 +5045,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111622996</v>
+        <v>111623000</v>
       </c>
       <c r="B41" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5469,30 +5057,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5500,10 +5093,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536109.6063802312</v>
+        <v>536110</v>
       </c>
       <c r="R41" t="n">
-        <v>7209286.560724956</v>
+        <v>7209287</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5533,28 +5126,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5573,10 +5155,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111622312</v>
+        <v>111623503</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5585,30 +5167,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5616,13 +5203,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536040.9507766268</v>
+        <v>535857</v>
       </c>
       <c r="R42" t="n">
-        <v>7209184.617312368</v>
+        <v>7209593</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5649,28 +5236,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5689,10 +5265,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111622557</v>
+        <v>111622612</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5705,31 +5281,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5737,10 +5308,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536009.1715554149</v>
+        <v>535976</v>
       </c>
       <c r="R43" t="n">
-        <v>7209185.502391796</v>
+        <v>7209176</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5770,27 +5341,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5809,10 +5371,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111622612</v>
+        <v>111623828</v>
       </c>
       <c r="B44" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5821,25 +5383,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5852,13 +5414,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>535976.2494590636</v>
+        <v>535970</v>
       </c>
       <c r="R44" t="n">
-        <v>7209175.797223139</v>
+        <v>7209759</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5885,19 +5447,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5925,7 +5477,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111622173</v>
+        <v>111623155</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5973,10 +5525,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536211.5596349295</v>
+        <v>535977</v>
       </c>
       <c r="R45" t="n">
-        <v>7208983.18093912</v>
+        <v>7209320</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6006,21 +5558,11 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
@@ -6029,21 +5571,6 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -6060,10 +5587,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111624052</v>
+        <v>111623380</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6076,26 +5603,31 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6103,10 +5635,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535928.2260010642</v>
+        <v>535912</v>
       </c>
       <c r="R46" t="n">
-        <v>7209575.417457776</v>
+        <v>7209513</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6136,28 +5668,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6176,10 +5697,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111624010</v>
+        <v>111624625</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6192,31 +5713,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6224,10 +5740,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>535979.5667387084</v>
+        <v>536147</v>
       </c>
       <c r="R47" t="n">
-        <v>7209602.686786775</v>
+        <v>7209377</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6257,19 +5773,14 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Både på stubbe och lågan</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6278,6 +5789,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6296,10 +5808,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111623126</v>
+        <v>111624238</v>
       </c>
       <c r="B48" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6308,30 +5820,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6339,13 +5856,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536023.4663215687</v>
+        <v>536021</v>
       </c>
       <c r="R48" t="n">
-        <v>7209299.479105573</v>
+        <v>7209467</v>
       </c>
       <c r="S48" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6372,28 +5889,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6412,7 +5918,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111623925</v>
+        <v>111623697</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6450,7 +5956,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6460,10 +5966,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>535975.1632773781</v>
+        <v>535988</v>
       </c>
       <c r="R49" t="n">
-        <v>7209651.702600373</v>
+        <v>7209708</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6493,19 +5999,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6532,7 +6028,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111622736</v>
+        <v>111623672</v>
       </c>
       <c r="B50" t="n">
         <v>90087</v>
@@ -6575,13 +6071,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535953.8130829642</v>
+        <v>535988</v>
       </c>
       <c r="R50" t="n">
-        <v>7209209.795134133</v>
+        <v>7209708</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6608,19 +6104,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6648,10 +6134,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111623417</v>
+        <v>111622583</v>
       </c>
       <c r="B51" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6660,30 +6146,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6691,13 +6182,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535866.1958485778</v>
+        <v>536008</v>
       </c>
       <c r="R51" t="n">
-        <v>7209556.480484258</v>
+        <v>7209183</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6724,19 +6215,14 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Rikligt, hela stammen. Även garnlav på denna gran</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6745,7 +6231,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6764,10 +6249,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111624796</v>
+        <v>111623592</v>
       </c>
       <c r="B52" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6780,26 +6265,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6807,10 +6297,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536163.4453901229</v>
+        <v>535952</v>
       </c>
       <c r="R52" t="n">
-        <v>7209387.476444452</v>
+        <v>7209602</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6840,28 +6330,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6880,7 +6359,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111623380</v>
+        <v>111624344</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6928,10 +6407,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535912.0367731415</v>
+        <v>536035</v>
       </c>
       <c r="R53" t="n">
-        <v>7209513.038373807</v>
+        <v>7209440</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6961,19 +6440,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7000,10 +6469,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111622993</v>
+        <v>111621888</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7012,35 +6481,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7048,13 +6512,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536109.6063802312</v>
+        <v>536416</v>
       </c>
       <c r="R54" t="n">
-        <v>7209286.560724956</v>
+        <v>7209163</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7081,27 +6545,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7120,10 +6575,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111622590</v>
+        <v>111623493</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7136,26 +6591,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7163,13 +6623,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536007.9265540047</v>
+        <v>535838</v>
       </c>
       <c r="R55" t="n">
-        <v>7209183.371993401</v>
+        <v>7209570</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7196,28 +6656,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7236,10 +6685,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111623511</v>
+        <v>111623001</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7252,31 +6701,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7284,13 +6728,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>535899.6858320399</v>
+        <v>536110</v>
       </c>
       <c r="R56" t="n">
-        <v>7209589.032964948</v>
+        <v>7209287</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7317,27 +6761,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7356,10 +6791,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111624564</v>
+        <v>111623925</v>
       </c>
       <c r="B57" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7368,30 +6803,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7399,10 +6839,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536083.1087774199</v>
+        <v>535975</v>
       </c>
       <c r="R57" t="n">
-        <v>7209411.039029445</v>
+        <v>7209652</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7432,28 +6872,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7472,10 +6901,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111624006</v>
+        <v>111623126</v>
       </c>
       <c r="B58" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7484,25 +6913,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7515,13 +6944,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>535979.5667387084</v>
+        <v>536023</v>
       </c>
       <c r="R58" t="n">
-        <v>7209602.686786775</v>
+        <v>7209299</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7548,19 +6977,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7588,7 +7007,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111624450</v>
+        <v>111622173</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7636,13 +7055,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>536057.8671864467</v>
+        <v>536212</v>
       </c>
       <c r="R59" t="n">
-        <v>7209431.885401525</v>
+        <v>7208983</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7669,21 +7088,11 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
@@ -7692,6 +7101,21 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
@@ -7708,7 +7132,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111623493</v>
+        <v>111622734</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7756,13 +7180,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535838.0792552171</v>
+        <v>535954</v>
       </c>
       <c r="R60" t="n">
-        <v>7209570.101763099</v>
+        <v>7209210</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7789,19 +7213,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7828,10 +7242,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111622636</v>
+        <v>111624052</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7844,31 +7258,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7876,13 +7285,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535993.6234792916</v>
+        <v>535928</v>
       </c>
       <c r="R61" t="n">
-        <v>7209210.275665025</v>
+        <v>7209575</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7909,27 +7318,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7948,10 +7348,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111624781</v>
+        <v>111625227</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7964,21 +7364,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7991,10 +7391,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536163.4453901229</v>
+        <v>536369</v>
       </c>
       <c r="R62" t="n">
-        <v>7209387.476444452</v>
+        <v>7209490</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -8024,24 +7424,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Även rosenticka mfl vedsvampar på denna låga</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8069,7 +7454,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111622734</v>
+        <v>111623904</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -8107,7 +7492,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8117,13 +7502,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535953.8130829642</v>
+        <v>535967</v>
       </c>
       <c r="R63" t="n">
-        <v>7209209.795134133</v>
+        <v>7209675</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8150,19 +7535,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8189,10 +7564,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111623737</v>
+        <v>111621985</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8205,31 +7580,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8237,13 +7607,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535968.9484369244</v>
+        <v>536397</v>
       </c>
       <c r="R64" t="n">
-        <v>7209745.533198988</v>
+        <v>7209171</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8270,27 +7640,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8309,10 +7670,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111624558</v>
+        <v>111623076</v>
       </c>
       <c r="B65" t="n">
-        <v>89790</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8325,21 +7686,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6040186</v>
+        <v>100109</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8347,13 +7718,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>536083.1087774199</v>
+        <v>536023</v>
       </c>
       <c r="R65" t="n">
-        <v>7209411.039029445</v>
+        <v>7209299</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8380,28 +7751,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8420,10 +7780,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111625227</v>
+        <v>111624004</v>
       </c>
       <c r="B66" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8432,25 +7792,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8463,10 +7823,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>536368.8900330348</v>
+        <v>535980</v>
       </c>
       <c r="R66" t="n">
-        <v>7209489.813207326</v>
+        <v>7209603</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8496,19 +7856,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8536,7 +7886,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111623468</v>
+        <v>111623840</v>
       </c>
       <c r="B67" t="n">
         <v>56398</v>
@@ -8574,7 +7924,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -8584,10 +7934,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535866.1958485778</v>
+        <v>535970</v>
       </c>
       <c r="R67" t="n">
-        <v>7209556.480484258</v>
+        <v>7209759</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8617,19 +7967,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8656,10 +7996,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111621404</v>
+        <v>111621741</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8672,21 +8012,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8699,10 +8039,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>536490.2040342408</v>
+        <v>536601</v>
       </c>
       <c r="R68" t="n">
-        <v>7208921.420983357</v>
+        <v>7209071</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8732,19 +8072,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8756,6 +8086,26 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8772,10 +8122,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111621741</v>
+        <v>111621391</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8788,26 +8138,31 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8815,10 +8170,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536601.4752199765</v>
+        <v>536494</v>
       </c>
       <c r="R69" t="n">
-        <v>7209070.870306575</v>
+        <v>7208860</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8848,28 +8203,17 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8883,14 +8227,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8908,10 +8247,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111621391</v>
+        <v>111621754</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8920,35 +8259,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8956,10 +8290,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536493.9251405013</v>
+        <v>536493</v>
       </c>
       <c r="R70" t="n">
-        <v>7208859.691794363</v>
+        <v>7209073</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8989,27 +8323,18 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -9043,10 +8368,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111621709</v>
+        <v>111621404</v>
       </c>
       <c r="B71" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9059,21 +8384,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9086,10 +8411,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>536588.4287280297</v>
+        <v>536490</v>
       </c>
       <c r="R71" t="n">
-        <v>7209063.940678015</v>
+        <v>7208921</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9119,19 +8444,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9143,26 +8458,6 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ71" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK71" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO71" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
@@ -9179,10 +8474,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111621754</v>
+        <v>111621709</v>
       </c>
       <c r="B72" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9191,25 +8486,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9222,10 +8517,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536493.437552894</v>
+        <v>536588</v>
       </c>
       <c r="R72" t="n">
-        <v>7209072.507141155</v>
+        <v>7209064</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9255,19 +8550,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9290,9 +8575,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
